--- a/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9954058693446647</v>
+        <v>1.036804490228422</v>
       </c>
       <c r="D2">
-        <v>1.013738416501466</v>
+        <v>1.051362145750869</v>
       </c>
       <c r="E2">
-        <v>1.002960352604546</v>
+        <v>1.047482573299809</v>
       </c>
       <c r="F2">
-        <v>1.003135307926225</v>
+        <v>1.057942017571979</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042628460525431</v>
+        <v>1.05786653276531</v>
       </c>
       <c r="J2">
-        <v>1.017724863758706</v>
+        <v>1.057937472553438</v>
       </c>
       <c r="K2">
-        <v>1.025009614707965</v>
+        <v>1.062149460606427</v>
       </c>
       <c r="L2">
-        <v>1.014378598510241</v>
+        <v>1.058317781416982</v>
       </c>
       <c r="M2">
-        <v>1.014551135067536</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.068649101514922</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003149789635956</v>
+        <v>1.043979052271376</v>
       </c>
       <c r="D3">
-        <v>1.019608104206489</v>
+        <v>1.056998546479521</v>
       </c>
       <c r="E3">
-        <v>1.009570550793759</v>
+        <v>1.053548808564625</v>
       </c>
       <c r="F3">
-        <v>1.010880304975046</v>
+        <v>1.064089199291095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045354850020746</v>
+        <v>1.060189984116524</v>
       </c>
       <c r="J3">
-        <v>1.0235549549568</v>
+        <v>1.063338601680098</v>
       </c>
       <c r="K3">
-        <v>1.029996095397648</v>
+        <v>1.06695058612938</v>
       </c>
       <c r="L3">
-        <v>1.020082421853323</v>
+        <v>1.063539473643258</v>
       </c>
       <c r="M3">
-        <v>1.021375837651885</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.073962813702867</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008001262217251</v>
+        <v>1.048494755723036</v>
       </c>
       <c r="D4">
-        <v>1.023287270205985</v>
+        <v>1.060548286760224</v>
       </c>
       <c r="E4">
-        <v>1.013717328854457</v>
+        <v>1.057372039214037</v>
       </c>
       <c r="F4">
-        <v>1.015740309108474</v>
+        <v>1.067963308452438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047047562095349</v>
+        <v>1.061640949543538</v>
       </c>
       <c r="J4">
-        <v>1.02720248600476</v>
+        <v>1.066734357700086</v>
       </c>
       <c r="K4">
-        <v>1.033112533393558</v>
+        <v>1.069967000039566</v>
       </c>
       <c r="L4">
-        <v>1.023652969535656</v>
+        <v>1.066824041726164</v>
       </c>
       <c r="M4">
-        <v>1.02565240292784</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.077305247212544</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01000491438646</v>
+        <v>1.050364400755678</v>
       </c>
       <c r="D5">
-        <v>1.024807090604246</v>
+        <v>1.062018419984645</v>
       </c>
       <c r="E5">
-        <v>1.015431184020182</v>
+        <v>1.058956124140879</v>
       </c>
       <c r="F5">
-        <v>1.01774931671304</v>
+        <v>1.06956843513967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047742899424505</v>
+        <v>1.06223889769312</v>
       </c>
       <c r="J5">
-        <v>1.028707654845197</v>
+        <v>1.068139352301905</v>
       </c>
       <c r="K5">
-        <v>1.034397725808906</v>
+        <v>1.071214515757163</v>
       </c>
       <c r="L5">
-        <v>1.025126846313308</v>
+        <v>1.068183411820262</v>
       </c>
       <c r="M5">
-        <v>1.027418789911827</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.078688555692758</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010339292339271</v>
+        <v>1.050676679784953</v>
       </c>
       <c r="D6">
-        <v>1.025060740676335</v>
+        <v>1.062263992821177</v>
       </c>
       <c r="E6">
-        <v>1.015717269788164</v>
+        <v>1.059220772363246</v>
       </c>
       <c r="F6">
-        <v>1.018084694695293</v>
+        <v>1.069836596302163</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047858717658566</v>
+        <v>1.062338604374993</v>
       </c>
       <c r="J6">
-        <v>1.028958767930812</v>
+        <v>1.068373964799539</v>
       </c>
       <c r="K6">
-        <v>1.034612090448249</v>
+        <v>1.071422800224414</v>
       </c>
       <c r="L6">
-        <v>1.025372766580986</v>
+        <v>1.068410427751062</v>
       </c>
       <c r="M6">
-        <v>1.027713580372089</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.078919568590913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008028173386859</v>
+        <v>1.048519849005197</v>
       </c>
       <c r="D7">
-        <v>1.023307681852248</v>
+        <v>1.060568016453014</v>
       </c>
       <c r="E7">
-        <v>1.013740342949942</v>
+        <v>1.057393295446597</v>
       </c>
       <c r="F7">
-        <v>1.015767285020252</v>
+        <v>1.067984847197183</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047056916154283</v>
+        <v>1.061648985994036</v>
       </c>
       <c r="J7">
-        <v>1.02722270708094</v>
+        <v>1.06675321857547</v>
       </c>
       <c r="K7">
-        <v>1.033129802491555</v>
+        <v>1.069983748999119</v>
       </c>
       <c r="L7">
-        <v>1.023672768347444</v>
+        <v>1.066842288642471</v>
       </c>
       <c r="M7">
-        <v>1.02567612677728</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.077323815503137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998057377895408</v>
+        <v>1.039256395264342</v>
       </c>
       <c r="D8">
-        <v>1.015747715756528</v>
+        <v>1.05328787081918</v>
       </c>
       <c r="E8">
-        <v>1.005222437810994</v>
+        <v>1.049554578826246</v>
       </c>
       <c r="F8">
-        <v>1.005785489934834</v>
+        <v>1.060041696826973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043565170365397</v>
+        <v>1.058662943876642</v>
       </c>
       <c r="J8">
-        <v>1.01972208195464</v>
+        <v>1.059784057949827</v>
       </c>
       <c r="K8">
-        <v>1.026718517034826</v>
+        <v>1.063791344907014</v>
       </c>
       <c r="L8">
-        <v>1.016332129523484</v>
+        <v>1.060102669594435</v>
       </c>
       <c r="M8">
-        <v>1.016887659261232</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.07046544397652</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9791541170139904</v>
+        <v>1.021884544889326</v>
       </c>
       <c r="D9">
-        <v>1.001436714102688</v>
+        <v>1.039657480054881</v>
       </c>
       <c r="E9">
-        <v>0.9891241496568116</v>
+        <v>1.034900049867876</v>
       </c>
       <c r="F9">
-        <v>0.9869283676479748</v>
+        <v>1.045191110867344</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036823654290258</v>
+        <v>1.052973642037903</v>
       </c>
       <c r="J9">
-        <v>1.005465098971327</v>
+        <v>1.046687486607965</v>
       </c>
       <c r="K9">
-        <v>1.014506524550657</v>
+        <v>1.052138317184073</v>
       </c>
       <c r="L9">
-        <v>1.00239617944132</v>
+        <v>1.047451183688968</v>
       </c>
       <c r="M9">
-        <v>1.000237144000698</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.057591202710586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9654750955055493</v>
+        <v>1.009476949644264</v>
       </c>
       <c r="D10">
-        <v>0.9911057247437746</v>
+        <v>1.029944528545689</v>
       </c>
       <c r="E10">
-        <v>0.9775175676467074</v>
+        <v>1.024470805654125</v>
       </c>
       <c r="F10">
-        <v>0.9733332254007346</v>
+        <v>1.034622239863981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031867563409973</v>
+        <v>1.048853388842953</v>
       </c>
       <c r="J10">
-        <v>0.9951287827724498</v>
+        <v>1.037319545175754</v>
       </c>
       <c r="K10">
-        <v>1.00563744671112</v>
+        <v>1.043793384376423</v>
       </c>
       <c r="L10">
-        <v>0.9923049710135381</v>
+        <v>1.038411855010539</v>
       </c>
       <c r="M10">
-        <v>0.9882012477384576</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.048393304260804</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9592482335060663</v>
+        <v>1.003876935887036</v>
       </c>
       <c r="D11">
-        <v>0.9864114963927189</v>
+        <v>1.025567865561661</v>
       </c>
       <c r="E11">
-        <v>0.9722464051566165</v>
+        <v>1.019774283796131</v>
       </c>
       <c r="F11">
-        <v>0.9671578036407394</v>
+        <v>1.029862934509924</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029594398381131</v>
+        <v>1.046981337374184</v>
       </c>
       <c r="J11">
-        <v>0.9904204099482629</v>
+        <v>1.033089314494782</v>
       </c>
       <c r="K11">
-        <v>1.001594303760755</v>
+        <v>1.040023196980109</v>
       </c>
       <c r="L11">
-        <v>0.987711405127651</v>
+        <v>1.034332678600154</v>
       </c>
       <c r="M11">
-        <v>0.9827268408654933</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.044242829346151</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9568848057651073</v>
+        <v>1.001759611489756</v>
       </c>
       <c r="D12">
-        <v>0.9846313306417673</v>
+        <v>1.023914332075939</v>
       </c>
       <c r="E12">
-        <v>0.9702477766168547</v>
+        <v>1.018000313162721</v>
       </c>
       <c r="F12">
-        <v>0.9648160159997057</v>
+        <v>1.028065274551474</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028729176520242</v>
+        <v>1.046271760904081</v>
       </c>
       <c r="J12">
-        <v>0.9886330020044516</v>
+        <v>1.031489687642278</v>
       </c>
       <c r="K12">
-        <v>1.000059014455055</v>
+        <v>1.038597278222561</v>
       </c>
       <c r="L12">
-        <v>0.9859680768886314</v>
+        <v>1.032790594190171</v>
       </c>
       <c r="M12">
-        <v>0.9806498222747043</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.042673841757365</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9573941400155409</v>
+        <v>1.002215522682074</v>
       </c>
       <c r="D13">
-        <v>0.9850148938900362</v>
+        <v>1.024270318387634</v>
       </c>
       <c r="E13">
-        <v>0.970678397605852</v>
+        <v>1.018382210251795</v>
       </c>
       <c r="F13">
-        <v>0.9653205890556873</v>
+        <v>1.02845227010112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028915745016791</v>
+        <v>1.046424627975379</v>
       </c>
       <c r="J13">
-        <v>0.9890182124670702</v>
+        <v>1.031834133464938</v>
       </c>
       <c r="K13">
-        <v>1.000389907940302</v>
+        <v>1.03890433054789</v>
       </c>
       <c r="L13">
-        <v>0.9863437648013759</v>
+        <v>1.033122630010759</v>
       </c>
       <c r="M13">
-        <v>0.9810973944124207</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.0430116677995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.959053932594282</v>
+        <v>1.003702695682489</v>
       </c>
       <c r="D14">
-        <v>0.9862651134121527</v>
+        <v>1.025431765486338</v>
       </c>
       <c r="E14">
-        <v>0.972082051879575</v>
+        <v>1.019628262603607</v>
       </c>
       <c r="F14">
-        <v>0.9669652381603288</v>
+        <v>1.029714962792017</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029523315688813</v>
+        <v>1.046922979702894</v>
       </c>
       <c r="J14">
-        <v>0.9902734702287987</v>
+        <v>1.032957680508219</v>
       </c>
       <c r="K14">
-        <v>1.001468098435612</v>
+        <v>1.039905862444965</v>
       </c>
       <c r="L14">
-        <v>0.9875680789311369</v>
+        <v>1.034205771099457</v>
       </c>
       <c r="M14">
-        <v>0.9825560687630654</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.044113706727521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.960069736934411</v>
+        <v>1.00461396092629</v>
       </c>
       <c r="D15">
-        <v>0.9870304673602582</v>
+        <v>1.026143612216965</v>
       </c>
       <c r="E15">
-        <v>0.9729413750672724</v>
+        <v>1.020392016344455</v>
       </c>
       <c r="F15">
-        <v>0.9679720563376347</v>
+        <v>1.030488919718123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029894837733349</v>
+        <v>1.047228115384023</v>
       </c>
       <c r="J15">
-        <v>0.991041658044979</v>
+        <v>1.033646110188811</v>
       </c>
       <c r="K15">
-        <v>1.00212787202388</v>
+        <v>1.040519497642387</v>
       </c>
       <c r="L15">
-        <v>0.9883173958561877</v>
+        <v>1.03486949915241</v>
       </c>
       <c r="M15">
-        <v>0.9834488984237929</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.044789021998432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9658815535385191</v>
+        <v>1.009843559277718</v>
       </c>
       <c r="D16">
-        <v>0.9914123379814418</v>
+        <v>1.030231213120925</v>
       </c>
       <c r="E16">
-        <v>0.9778619135027957</v>
+        <v>1.024778499800893</v>
       </c>
       <c r="F16">
-        <v>0.9737366093634636</v>
+        <v>1.034934050147553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032015602171119</v>
+        <v>1.04897569497918</v>
       </c>
       <c r="J16">
-        <v>0.9954360682103633</v>
+        <v>1.037596445899827</v>
       </c>
       <c r="K16">
-        <v>1.005901256539956</v>
+        <v>1.044040134942504</v>
       </c>
       <c r="L16">
-        <v>0.9926048306536372</v>
+        <v>1.038678925089866</v>
       </c>
       <c r="M16">
-        <v>0.9885586930572628</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.048665048671098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9694426173305969</v>
+        <v>1.013061007462624</v>
       </c>
       <c r="D17">
-        <v>0.9940996318586743</v>
+        <v>1.032748049147726</v>
       </c>
       <c r="E17">
-        <v>0.9808802053675385</v>
+        <v>1.027480106384731</v>
       </c>
       <c r="F17">
-        <v>0.9772722447852961</v>
+        <v>1.037671808918897</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033310692923867</v>
+        <v>1.050047687851634</v>
       </c>
       <c r="J17">
-        <v>0.998127921109296</v>
+        <v>1.040026360595633</v>
       </c>
       <c r="K17">
-        <v>1.008211912924361</v>
+        <v>1.046205257756771</v>
       </c>
       <c r="L17">
-        <v>0.9952319899383937</v>
+        <v>1.041022875375569</v>
       </c>
       <c r="M17">
-        <v>0.9916908651830008</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.051050053948486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714907811785733</v>
+        <v>1.014915970623661</v>
       </c>
       <c r="D18">
-        <v>0.9956460264009637</v>
+        <v>1.034199747929105</v>
       </c>
       <c r="E18">
-        <v>0.982617327589927</v>
+        <v>1.029038655379533</v>
       </c>
       <c r="F18">
-        <v>0.9793070156935363</v>
+        <v>1.03925122203538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034053961640151</v>
+        <v>1.050664550143914</v>
       </c>
       <c r="J18">
-        <v>0.9996758485726602</v>
+        <v>1.041427077180623</v>
       </c>
       <c r="K18">
-        <v>1.009540340724397</v>
+        <v>1.047453153758834</v>
       </c>
       <c r="L18">
-        <v>0.9967430096458167</v>
+        <v>1.042374287164048</v>
       </c>
       <c r="M18">
-        <v>0.9934927597873022</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.052425159721145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9721843787586839</v>
+        <v>1.015544868094973</v>
       </c>
       <c r="D19">
-        <v>0.9961698288879135</v>
+        <v>1.034692031901538</v>
       </c>
       <c r="E19">
-        <v>0.9832057798658014</v>
+        <v>1.029567220736607</v>
       </c>
       <c r="F19">
-        <v>0.9799962834868802</v>
+        <v>1.039786864287001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034305388162251</v>
+        <v>1.05087348572826</v>
       </c>
       <c r="J19">
-        <v>1.000199988518702</v>
+        <v>1.041901930739318</v>
       </c>
       <c r="K19">
-        <v>1.009990104833861</v>
+        <v>1.047876168136155</v>
       </c>
       <c r="L19">
-        <v>0.9972547015781597</v>
+        <v>1.042832467659516</v>
       </c>
       <c r="M19">
-        <v>0.994103025619378</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.052891377070867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9690635755738287</v>
+        <v>1.012718073261053</v>
       </c>
       <c r="D20">
-        <v>0.9938135114560009</v>
+        <v>1.032479720345834</v>
       </c>
       <c r="E20">
-        <v>0.9805588169922743</v>
+        <v>1.027192050118258</v>
       </c>
       <c r="F20">
-        <v>0.9768957806644235</v>
+        <v>1.037379897049703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03317300915258</v>
+        <v>1.049933550209412</v>
       </c>
       <c r="J20">
-        <v>0.9978414294668276</v>
+        <v>1.039767387113326</v>
       </c>
       <c r="K20">
-        <v>1.007966022128521</v>
+        <v>1.045974523747057</v>
       </c>
       <c r="L20">
-        <v>0.9949523528851639</v>
+        <v>1.040773037704752</v>
       </c>
       <c r="M20">
-        <v>0.9913574313594326</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.050795837766619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9585666016148511</v>
+        <v>1.003265814460922</v>
       </c>
       <c r="D21">
-        <v>0.9858979923612317</v>
+        <v>1.025090535675558</v>
       </c>
       <c r="E21">
-        <v>0.9716698671829836</v>
+        <v>1.019262165047693</v>
       </c>
       <c r="F21">
-        <v>0.9664822943063781</v>
+        <v>1.029343975416071</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029344992783597</v>
+        <v>1.046776628508769</v>
       </c>
       <c r="J21">
-        <v>0.9899049222949848</v>
+        <v>1.032627625063253</v>
       </c>
       <c r="K21">
-        <v>1.001151549090494</v>
+        <v>1.039611657095152</v>
       </c>
       <c r="L21">
-        <v>0.9872086023371512</v>
+        <v>1.033887573590751</v>
       </c>
       <c r="M21">
-        <v>0.9821277645315648</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.043789956064142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9516716232632451</v>
+        <v>0.9971056046515621</v>
       </c>
       <c r="D22">
-        <v>0.9807078618503179</v>
+        <v>1.020282282786215</v>
       </c>
       <c r="E22">
-        <v>0.9658433242773445</v>
+        <v>1.014104436930834</v>
       </c>
       <c r="F22">
-        <v>0.9596546278020467</v>
+        <v>1.024117433455818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026816361168975</v>
+        <v>1.04470892870082</v>
       </c>
       <c r="J22">
-        <v>0.9846899600333253</v>
+        <v>1.027973363304534</v>
       </c>
       <c r="K22">
-        <v>0.996671438480908</v>
+        <v>1.035462374359236</v>
       </c>
       <c r="L22">
-        <v>0.9821232198039803</v>
+        <v>1.029401566434205</v>
       </c>
       <c r="M22">
-        <v>0.9760700638706084</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.039225795671225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553565772814235</v>
+        <v>1.000392958491842</v>
       </c>
       <c r="D23">
-        <v>0.9834807191956482</v>
+        <v>1.022847414764373</v>
       </c>
       <c r="E23">
-        <v>0.9689560427391323</v>
+        <v>1.016855796767217</v>
       </c>
       <c r="F23">
-        <v>0.9633023938823977</v>
+        <v>1.026905483093023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028169042734449</v>
+        <v>1.045813271140874</v>
       </c>
       <c r="J23">
-        <v>0.987477164054418</v>
+        <v>1.030457145440717</v>
       </c>
       <c r="K23">
-        <v>0.9990660995255707</v>
+        <v>1.037676795790835</v>
       </c>
       <c r="L23">
-        <v>0.9848408863558874</v>
+        <v>1.031795317120831</v>
       </c>
       <c r="M23">
-        <v>0.9793070382861472</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.041661216834199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9692349373159097</v>
+        <v>1.01287309735974</v>
       </c>
       <c r="D24">
-        <v>0.9939428617802555</v>
+        <v>1.032601016882398</v>
       </c>
       <c r="E24">
-        <v>0.9807041105852632</v>
+        <v>1.02732226348768</v>
       </c>
       <c r="F24">
-        <v>0.9770659732562655</v>
+        <v>1.037511853287228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033235259894956</v>
+        <v>1.049985150021583</v>
       </c>
       <c r="J24">
-        <v>0.9979709510032991</v>
+        <v>1.039884457253413</v>
       </c>
       <c r="K24">
-        <v>1.008077189134743</v>
+        <v>1.046078828673335</v>
       </c>
       <c r="L24">
-        <v>0.9950787745821191</v>
+        <v>1.040885977187699</v>
       </c>
       <c r="M24">
-        <v>0.9915081728558868</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.050910756489413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9842162567716304</v>
+        <v>1.026511557019029</v>
       </c>
       <c r="D25">
-        <v>1.005265636892808</v>
+        <v>1.043284691116476</v>
       </c>
       <c r="E25">
-        <v>0.9934285417956817</v>
+        <v>1.038797398883073</v>
       </c>
       <c r="F25">
-        <v>0.9919699645727925</v>
+        <v>1.049140652685337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03864254660255</v>
+        <v>1.054498988374844</v>
       </c>
       <c r="J25">
-        <v>1.009286737953781</v>
+        <v>1.050178496147637</v>
       </c>
       <c r="K25">
-        <v>1.017782756897748</v>
+        <v>1.055246273421692</v>
       </c>
       <c r="L25">
-        <v>1.006129735017442</v>
+        <v>1.050821874836247</v>
       </c>
       <c r="M25">
-        <v>1.004694228786514</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.061021177852329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036804490228422</v>
+        <v>1.023866597785184</v>
       </c>
       <c r="D2">
-        <v>1.051362145750869</v>
+        <v>1.038777754927363</v>
       </c>
       <c r="E2">
-        <v>1.047482573299809</v>
+        <v>1.036168485715741</v>
       </c>
       <c r="F2">
-        <v>1.057942017571979</v>
+        <v>1.04598819469396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05786653276531</v>
+        <v>1.051808223324889</v>
       </c>
       <c r="J2">
-        <v>1.057937472553438</v>
+        <v>1.045356165077591</v>
       </c>
       <c r="K2">
-        <v>1.062149460606427</v>
+        <v>1.049722048555594</v>
       </c>
       <c r="L2">
-        <v>1.058317781416982</v>
+        <v>1.047145923655426</v>
       </c>
       <c r="M2">
-        <v>1.068649101514922</v>
+        <v>1.056841968962732</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043979052271376</v>
+        <v>1.030848680007725</v>
       </c>
       <c r="D3">
-        <v>1.056998546479521</v>
+        <v>1.043979788809675</v>
       </c>
       <c r="E3">
-        <v>1.053548808564625</v>
+        <v>1.041999081852364</v>
       </c>
       <c r="F3">
-        <v>1.064089199291095</v>
+        <v>1.051815187796187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060189984116524</v>
+        <v>1.053712889679286</v>
       </c>
       <c r="J3">
-        <v>1.063338601680098</v>
+        <v>1.05053230182168</v>
       </c>
       <c r="K3">
-        <v>1.06695058612938</v>
+        <v>1.054079243815488</v>
       </c>
       <c r="L3">
-        <v>1.063539473643258</v>
+        <v>1.052121363757355</v>
       </c>
       <c r="M3">
-        <v>1.073962813702867</v>
+        <v>1.061825381433926</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048494755723036</v>
+        <v>1.035245839276772</v>
       </c>
       <c r="D4">
-        <v>1.060548286760224</v>
+        <v>1.047258286210141</v>
       </c>
       <c r="E4">
-        <v>1.057372039214037</v>
+        <v>1.045676688448918</v>
       </c>
       <c r="F4">
-        <v>1.067963308452438</v>
+        <v>1.055490149095464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061640949543538</v>
+        <v>1.054900795215351</v>
       </c>
       <c r="J4">
-        <v>1.066734357700086</v>
+        <v>1.053788991625406</v>
       </c>
       <c r="K4">
-        <v>1.069967000039566</v>
+        <v>1.056817935937109</v>
       </c>
       <c r="L4">
-        <v>1.066824041726164</v>
+        <v>1.055253402972066</v>
       </c>
       <c r="M4">
-        <v>1.077305247212544</v>
+        <v>1.064961990690784</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050364400755678</v>
+        <v>1.037066980164065</v>
       </c>
       <c r="D5">
-        <v>1.062018419984645</v>
+        <v>1.048616586724652</v>
       </c>
       <c r="E5">
-        <v>1.058956124140879</v>
+        <v>1.047201082737274</v>
       </c>
       <c r="F5">
-        <v>1.06956843513967</v>
+        <v>1.057013346338266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06223889769312</v>
+        <v>1.055389936726806</v>
       </c>
       <c r="J5">
-        <v>1.068139352301905</v>
+        <v>1.05513697938608</v>
       </c>
       <c r="K5">
-        <v>1.071214515757163</v>
+        <v>1.057950834811946</v>
       </c>
       <c r="L5">
-        <v>1.068183411820262</v>
+        <v>1.056550174800435</v>
       </c>
       <c r="M5">
-        <v>1.078688555692758</v>
+        <v>1.066260536980972</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050676679784953</v>
+        <v>1.037371190369419</v>
       </c>
       <c r="D6">
-        <v>1.062263992821177</v>
+        <v>1.048843507025523</v>
       </c>
       <c r="E6">
-        <v>1.059220772363246</v>
+        <v>1.047455795331255</v>
       </c>
       <c r="F6">
-        <v>1.069836596302163</v>
+        <v>1.057267852692967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062338604374993</v>
+        <v>1.055471475785758</v>
       </c>
       <c r="J6">
-        <v>1.068373964799539</v>
+        <v>1.055362102757685</v>
       </c>
       <c r="K6">
-        <v>1.071422800224414</v>
+        <v>1.058139995982601</v>
       </c>
       <c r="L6">
-        <v>1.068410427751062</v>
+        <v>1.056766766724717</v>
       </c>
       <c r="M6">
-        <v>1.078919568590913</v>
+        <v>1.066477418078479</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048519849005197</v>
+        <v>1.035270279342175</v>
       </c>
       <c r="D7">
-        <v>1.060568016453014</v>
+        <v>1.047276513145722</v>
       </c>
       <c r="E7">
-        <v>1.057393295446597</v>
+        <v>1.045697141219385</v>
       </c>
       <c r="F7">
-        <v>1.067984847197183</v>
+        <v>1.05551058621701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061648985994036</v>
+        <v>1.054907370919631</v>
       </c>
       <c r="J7">
-        <v>1.06675321857547</v>
+        <v>1.053807085179306</v>
       </c>
       <c r="K7">
-        <v>1.069983748999119</v>
+        <v>1.056833145163665</v>
       </c>
       <c r="L7">
-        <v>1.066842288642471</v>
+        <v>1.05527080758844</v>
       </c>
       <c r="M7">
-        <v>1.077323815503137</v>
+        <v>1.064979419601609</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039256395264342</v>
+        <v>1.026252143420053</v>
       </c>
       <c r="D8">
-        <v>1.05328787081918</v>
+        <v>1.040554553211258</v>
       </c>
       <c r="E8">
-        <v>1.049554578826246</v>
+        <v>1.038159367684264</v>
       </c>
       <c r="F8">
-        <v>1.060041696826973</v>
+        <v>1.047977917772192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058662943876642</v>
+        <v>1.05246139284781</v>
       </c>
       <c r="J8">
-        <v>1.059784057949827</v>
+        <v>1.04712529757697</v>
       </c>
       <c r="K8">
-        <v>1.063791344907014</v>
+        <v>1.051211840139445</v>
       </c>
       <c r="L8">
-        <v>1.060102669594435</v>
+        <v>1.048846112011632</v>
       </c>
       <c r="M8">
-        <v>1.07046544397652</v>
+        <v>1.058544969759477</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021884544889326</v>
+        <v>1.009363938812814</v>
       </c>
       <c r="D9">
-        <v>1.039657480054881</v>
+        <v>1.027990683085541</v>
       </c>
       <c r="E9">
-        <v>1.034900049867876</v>
+        <v>1.024093190069006</v>
       </c>
       <c r="F9">
-        <v>1.045191110867344</v>
+        <v>1.033918830188645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052973642037903</v>
+        <v>1.047790036606048</v>
       </c>
       <c r="J9">
-        <v>1.046687486607965</v>
+        <v>1.03459031096055</v>
       </c>
       <c r="K9">
-        <v>1.052138317184073</v>
+        <v>1.040645386807731</v>
       </c>
       <c r="L9">
-        <v>1.047451183688968</v>
+        <v>1.036807102495388</v>
       </c>
       <c r="M9">
-        <v>1.057591202710586</v>
+        <v>1.046484565030717</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009476949644264</v>
+        <v>0.9973220738563512</v>
       </c>
       <c r="D10">
-        <v>1.029944528545689</v>
+        <v>1.019056757781774</v>
       </c>
       <c r="E10">
-        <v>1.024470805654125</v>
+        <v>1.014104198554071</v>
       </c>
       <c r="F10">
-        <v>1.034622239863981</v>
+        <v>1.023934086780451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048853388842953</v>
+        <v>1.044401806717383</v>
       </c>
       <c r="J10">
-        <v>1.037319545175754</v>
+        <v>1.025642344249356</v>
       </c>
       <c r="K10">
-        <v>1.043793384376423</v>
+        <v>1.033090255058745</v>
       </c>
       <c r="L10">
-        <v>1.038411855010539</v>
+        <v>1.028223382774552</v>
       </c>
       <c r="M10">
-        <v>1.048393304260804</v>
+        <v>1.037884244557225</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003876935887036</v>
+        <v>0.9918930978607332</v>
       </c>
       <c r="D11">
-        <v>1.025567865561661</v>
+        <v>1.015036814344854</v>
       </c>
       <c r="E11">
-        <v>1.019774283796131</v>
+        <v>1.009612127404437</v>
       </c>
       <c r="F11">
-        <v>1.029862934509924</v>
+        <v>1.019443958581816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046981337374184</v>
+        <v>1.042861707118896</v>
       </c>
       <c r="J11">
-        <v>1.033089314494782</v>
+        <v>1.021607066161507</v>
       </c>
       <c r="K11">
-        <v>1.040023196980109</v>
+        <v>1.029680622457173</v>
       </c>
       <c r="L11">
-        <v>1.034332678600154</v>
+        <v>1.024355021464567</v>
       </c>
       <c r="M11">
-        <v>1.044242829346151</v>
+        <v>1.0340082754752</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001759611489756</v>
+        <v>0.9898414546615824</v>
       </c>
       <c r="D12">
-        <v>1.023914332075939</v>
+        <v>1.013519022203076</v>
       </c>
       <c r="E12">
-        <v>1.018000313162721</v>
+        <v>1.0079164204079</v>
       </c>
       <c r="F12">
-        <v>1.028065274551474</v>
+        <v>1.017749010752228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046271760904081</v>
+        <v>1.042277911344879</v>
       </c>
       <c r="J12">
-        <v>1.031489687642278</v>
+        <v>1.020082052821304</v>
       </c>
       <c r="K12">
-        <v>1.038597278222561</v>
+        <v>1.02839172275493</v>
       </c>
       <c r="L12">
-        <v>1.032790594190171</v>
+        <v>1.022893509792402</v>
       </c>
       <c r="M12">
-        <v>1.042673841757365</v>
+        <v>1.032543888700047</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002215522682074</v>
+        <v>0.9902831753206848</v>
       </c>
       <c r="D13">
-        <v>1.024270318387634</v>
+        <v>1.013845739184941</v>
       </c>
       <c r="E13">
-        <v>1.018382210251795</v>
+        <v>1.008281420271162</v>
       </c>
       <c r="F13">
-        <v>1.02845227010112</v>
+        <v>1.018113845687442</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046424627975379</v>
+        <v>1.042403681854052</v>
       </c>
       <c r="J13">
-        <v>1.031834133464938</v>
+        <v>1.020410390161871</v>
       </c>
       <c r="K13">
-        <v>1.03890433054789</v>
+        <v>1.028669238719031</v>
       </c>
       <c r="L13">
-        <v>1.033122630010759</v>
+        <v>1.023208155783788</v>
       </c>
       <c r="M13">
-        <v>1.0430116677995</v>
+        <v>1.032859153392746</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003702695682489</v>
+        <v>0.9917242414546332</v>
       </c>
       <c r="D14">
-        <v>1.025431765486338</v>
+        <v>1.014911866549778</v>
       </c>
       <c r="E14">
-        <v>1.019628262603607</v>
+        <v>1.009472526595495</v>
       </c>
       <c r="F14">
-        <v>1.029714962792017</v>
+        <v>1.019304419622794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046922979702894</v>
+        <v>1.042813694520889</v>
       </c>
       <c r="J14">
-        <v>1.032957680508219</v>
+        <v>1.021481553419646</v>
       </c>
       <c r="K14">
-        <v>1.039905862444965</v>
+        <v>1.029574548955585</v>
       </c>
       <c r="L14">
-        <v>1.034205771099457</v>
+        <v>1.024234726417613</v>
       </c>
       <c r="M14">
-        <v>1.044113706727521</v>
+        <v>1.033887743687955</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00461396092629</v>
+        <v>0.9926073916991328</v>
       </c>
       <c r="D15">
-        <v>1.026143612216965</v>
+        <v>1.015565423489881</v>
       </c>
       <c r="E15">
-        <v>1.020392016344455</v>
+        <v>1.01020274188549</v>
       </c>
       <c r="F15">
-        <v>1.030488919718123</v>
+        <v>1.020034312567813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047228115384023</v>
+        <v>1.04306473742162</v>
       </c>
       <c r="J15">
-        <v>1.033646110188811</v>
+        <v>1.022138006685717</v>
       </c>
       <c r="K15">
-        <v>1.040519497642387</v>
+        <v>1.030129318469275</v>
       </c>
       <c r="L15">
-        <v>1.03486949915241</v>
+        <v>1.024863907475173</v>
       </c>
       <c r="M15">
-        <v>1.044789021998432</v>
+        <v>1.034518163051931</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009843559277718</v>
+        <v>0.9976776194096879</v>
       </c>
       <c r="D16">
-        <v>1.030231213120925</v>
+        <v>1.019320203482276</v>
       </c>
       <c r="E16">
-        <v>1.024778499800893</v>
+        <v>1.014398635236094</v>
       </c>
       <c r="F16">
-        <v>1.034934050147553</v>
+        <v>1.024228398492426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04897569497918</v>
+        <v>1.044502416747067</v>
       </c>
       <c r="J16">
-        <v>1.037596445899827</v>
+        <v>1.0259066015786</v>
       </c>
       <c r="K16">
-        <v>1.044040134942504</v>
+        <v>1.033313492916963</v>
       </c>
       <c r="L16">
-        <v>1.038678925089866</v>
+        <v>1.028476766022827</v>
       </c>
       <c r="M16">
-        <v>1.048665048671098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.038138124996486</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013061007462624</v>
+        <v>1.000798653407448</v>
       </c>
       <c r="D17">
-        <v>1.032748049147726</v>
+        <v>1.021633678619297</v>
       </c>
       <c r="E17">
-        <v>1.027480106384731</v>
+        <v>1.016984551256485</v>
       </c>
       <c r="F17">
-        <v>1.037671808918897</v>
+        <v>1.026813222939375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050047687851634</v>
+        <v>1.0453841802643</v>
       </c>
       <c r="J17">
-        <v>1.040026360595633</v>
+        <v>1.028226175101456</v>
       </c>
       <c r="K17">
-        <v>1.046205257756771</v>
+        <v>1.035272733536172</v>
       </c>
       <c r="L17">
-        <v>1.041022875375569</v>
+        <v>1.03070119224923</v>
       </c>
       <c r="M17">
-        <v>1.051050053948486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.04036690373567</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014915970623661</v>
+        <v>1.00259858409292</v>
       </c>
       <c r="D18">
-        <v>1.034199747929105</v>
+        <v>1.02296860758237</v>
       </c>
       <c r="E18">
-        <v>1.029038655379533</v>
+        <v>1.018476934753975</v>
       </c>
       <c r="F18">
-        <v>1.03925122203538</v>
+        <v>1.028304978081037</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050664550143914</v>
+        <v>1.045891513530646</v>
       </c>
       <c r="J18">
-        <v>1.041427077180623</v>
+        <v>1.029563778234474</v>
       </c>
       <c r="K18">
-        <v>1.047453153758834</v>
+        <v>1.036402310644979</v>
       </c>
       <c r="L18">
-        <v>1.042374287164048</v>
+        <v>1.031984175968397</v>
       </c>
       <c r="M18">
-        <v>1.052425159721145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.04165238468067</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015544868094973</v>
+        <v>1.003208914341865</v>
       </c>
       <c r="D19">
-        <v>1.034692031901538</v>
+        <v>1.023421380210749</v>
       </c>
       <c r="E19">
-        <v>1.029567220736607</v>
+        <v>1.018983155543814</v>
       </c>
       <c r="F19">
-        <v>1.039786864287001</v>
+        <v>1.028810985419302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05087348572826</v>
+        <v>1.04606333839512</v>
       </c>
       <c r="J19">
-        <v>1.041901930739318</v>
+        <v>1.030017316731181</v>
       </c>
       <c r="K19">
-        <v>1.047876168136155</v>
+        <v>1.036785272792724</v>
       </c>
       <c r="L19">
-        <v>1.042832467659516</v>
+        <v>1.03241923624235</v>
       </c>
       <c r="M19">
-        <v>1.052891377070867</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.04208828901778</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012718073261053</v>
+        <v>1.000465937318909</v>
       </c>
       <c r="D20">
-        <v>1.032479720345834</v>
+        <v>1.021386975248544</v>
       </c>
       <c r="E20">
-        <v>1.027192050118258</v>
+        <v>1.016708769835213</v>
       </c>
       <c r="F20">
-        <v>1.037379897049703</v>
+        <v>1.026537557623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049933550209412</v>
+        <v>1.045290303115977</v>
       </c>
       <c r="J20">
-        <v>1.039767387113326</v>
+        <v>1.027978909672028</v>
       </c>
       <c r="K20">
-        <v>1.045974523747057</v>
+        <v>1.035063903731513</v>
       </c>
       <c r="L20">
-        <v>1.040773037704752</v>
+        <v>1.030464043548303</v>
       </c>
       <c r="M20">
-        <v>1.050795837766619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.040129292253446</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003265814460922</v>
+        <v>0.9913008760220582</v>
       </c>
       <c r="D21">
-        <v>1.025090535675558</v>
+        <v>1.014598613739427</v>
       </c>
       <c r="E21">
-        <v>1.019262165047693</v>
+        <v>1.009122543028241</v>
       </c>
       <c r="F21">
-        <v>1.029343975416071</v>
+        <v>1.018954591603663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046776628508769</v>
+        <v>1.042693286561182</v>
       </c>
       <c r="J21">
-        <v>1.032627625063253</v>
+        <v>1.021166860943673</v>
       </c>
       <c r="K21">
-        <v>1.039611657095152</v>
+        <v>1.029308590451746</v>
       </c>
       <c r="L21">
-        <v>1.033887573590751</v>
+        <v>1.023933122876577</v>
       </c>
       <c r="M21">
-        <v>1.043789956064142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.033585546644094</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9971056046515621</v>
+        <v>0.985333832067214</v>
       </c>
       <c r="D22">
-        <v>1.020282282786215</v>
+        <v>1.010187064077666</v>
       </c>
       <c r="E22">
-        <v>1.014104436930834</v>
+        <v>1.00419446896314</v>
       </c>
       <c r="F22">
-        <v>1.024117433455818</v>
+        <v>1.014028797940794</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04470892870082</v>
+        <v>1.040992100244719</v>
       </c>
       <c r="J22">
-        <v>1.027973363304534</v>
+        <v>1.016731512750137</v>
       </c>
       <c r="K22">
-        <v>1.035462374359236</v>
+        <v>1.025559378921641</v>
       </c>
       <c r="L22">
-        <v>1.029401566434205</v>
+        <v>1.019683288054842</v>
       </c>
       <c r="M22">
-        <v>1.039225795671225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.029327371971433</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000392958491842</v>
+        <v>0.9885174980888375</v>
       </c>
       <c r="D23">
-        <v>1.022847414764373</v>
+        <v>1.012539979208308</v>
       </c>
       <c r="E23">
-        <v>1.016855796767217</v>
+        <v>1.00682270509784</v>
       </c>
       <c r="F23">
-        <v>1.026905483093023</v>
+        <v>1.016655795137198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045813271140874</v>
+        <v>1.041900690083446</v>
       </c>
       <c r="J23">
-        <v>1.030457145440717</v>
+        <v>1.019097938108844</v>
       </c>
       <c r="K23">
-        <v>1.037676795790835</v>
+        <v>1.027559888334589</v>
       </c>
       <c r="L23">
-        <v>1.031795317120831</v>
+        <v>1.021950495165729</v>
       </c>
       <c r="M23">
-        <v>1.041661216834199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.031599021164439</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01287309735974</v>
+        <v>1.000616340588786</v>
       </c>
       <c r="D24">
-        <v>1.032601016882398</v>
+        <v>1.02149849449959</v>
       </c>
       <c r="E24">
-        <v>1.02732226348768</v>
+        <v>1.016833432685408</v>
       </c>
       <c r="F24">
-        <v>1.037511853287228</v>
+        <v>1.026662167986255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049985150021583</v>
+        <v>1.045332743685381</v>
       </c>
       <c r="J24">
-        <v>1.039884457253413</v>
+        <v>1.028090685611524</v>
       </c>
       <c r="K24">
-        <v>1.046078828673335</v>
+        <v>1.035158305647087</v>
       </c>
       <c r="L24">
-        <v>1.040885977187699</v>
+        <v>1.030571245468075</v>
       </c>
       <c r="M24">
-        <v>1.050910756489413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.040236703413515</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026511557019029</v>
+        <v>1.013859003398564</v>
       </c>
       <c r="D25">
-        <v>1.043284691116476</v>
+        <v>1.031331175836808</v>
       </c>
       <c r="E25">
-        <v>1.038797398883073</v>
+        <v>1.027830704055783</v>
       </c>
       <c r="F25">
-        <v>1.049140652685337</v>
+        <v>1.037654660992098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054498988374844</v>
+        <v>1.049043516998189</v>
       </c>
       <c r="J25">
-        <v>1.050178496147637</v>
+        <v>1.037928792131812</v>
       </c>
       <c r="K25">
-        <v>1.055246273421692</v>
+        <v>1.043461833555129</v>
       </c>
       <c r="L25">
-        <v>1.050821874836247</v>
+        <v>1.040011817321476</v>
       </c>
       <c r="M25">
-        <v>1.061021177852329</v>
+        <v>1.049695263336504</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023866597785184</v>
+        <v>1.067679594307382</v>
       </c>
       <c r="D2">
-        <v>1.038777754927363</v>
+        <v>1.066407713249684</v>
       </c>
       <c r="E2">
-        <v>1.036168485715741</v>
+        <v>1.071452302287768</v>
       </c>
       <c r="F2">
-        <v>1.04598819469396</v>
+        <v>1.079542135599914</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051808223324889</v>
+        <v>1.046038474011035</v>
       </c>
       <c r="J2">
-        <v>1.045356165077591</v>
+        <v>1.072623263039358</v>
       </c>
       <c r="K2">
-        <v>1.049722048555594</v>
+        <v>1.069118343834023</v>
       </c>
       <c r="L2">
-        <v>1.047145923655426</v>
+        <v>1.074149437883078</v>
       </c>
       <c r="M2">
-        <v>1.056841968962732</v>
+        <v>1.082217914197943</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030848680007725</v>
+        <v>1.069114138464885</v>
       </c>
       <c r="D3">
-        <v>1.043979788809675</v>
+        <v>1.067485898513489</v>
       </c>
       <c r="E3">
-        <v>1.041999081852364</v>
+        <v>1.072692109069217</v>
       </c>
       <c r="F3">
-        <v>1.051815187796187</v>
+        <v>1.080775892446985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053712889679286</v>
+        <v>1.046348868933507</v>
       </c>
       <c r="J3">
-        <v>1.05053230182168</v>
+        <v>1.073711991790584</v>
       </c>
       <c r="K3">
-        <v>1.054079243815488</v>
+        <v>1.070011460488644</v>
       </c>
       <c r="L3">
-        <v>1.052121363757355</v>
+        <v>1.075204755659584</v>
       </c>
       <c r="M3">
-        <v>1.061825381433926</v>
+        <v>1.083268750247478</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035245839276772</v>
+        <v>1.070041802431421</v>
       </c>
       <c r="D4">
-        <v>1.047258286210141</v>
+        <v>1.068182835352751</v>
       </c>
       <c r="E4">
-        <v>1.045676688448918</v>
+        <v>1.073494016840618</v>
       </c>
       <c r="F4">
-        <v>1.055490149095464</v>
+        <v>1.081573801282444</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054900795215351</v>
+        <v>1.046548065051609</v>
       </c>
       <c r="J4">
-        <v>1.053788991625406</v>
+        <v>1.074415421533425</v>
       </c>
       <c r="K4">
-        <v>1.056817935937109</v>
+        <v>1.070588047754985</v>
       </c>
       <c r="L4">
-        <v>1.055253402972066</v>
+        <v>1.075886719912772</v>
       </c>
       <c r="M4">
-        <v>1.064961990690784</v>
+        <v>1.083947726777279</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037066980164065</v>
+        <v>1.070431657631806</v>
       </c>
       <c r="D5">
-        <v>1.048616586724652</v>
+        <v>1.06847565750326</v>
       </c>
       <c r="E5">
-        <v>1.047201082737274</v>
+        <v>1.073831062954426</v>
       </c>
       <c r="F5">
-        <v>1.057013346338266</v>
+        <v>1.081909145960604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055389936726806</v>
+        <v>1.046631413012683</v>
       </c>
       <c r="J5">
-        <v>1.05513697938608</v>
+        <v>1.074710895026525</v>
       </c>
       <c r="K5">
-        <v>1.057950834811946</v>
+        <v>1.070830131727059</v>
       </c>
       <c r="L5">
-        <v>1.056550174800435</v>
+        <v>1.076173205838834</v>
       </c>
       <c r="M5">
-        <v>1.066260536980972</v>
+        <v>1.084232935555082</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037371190369419</v>
+        <v>1.070497108268382</v>
       </c>
       <c r="D6">
-        <v>1.048843507025523</v>
+        <v>1.068524813729913</v>
       </c>
       <c r="E6">
-        <v>1.047455795331255</v>
+        <v>1.073887650118832</v>
       </c>
       <c r="F6">
-        <v>1.057267852692967</v>
+        <v>1.081965446253595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055471475785758</v>
+        <v>1.046645384420545</v>
       </c>
       <c r="J6">
-        <v>1.055362102757685</v>
+        <v>1.074760491852503</v>
       </c>
       <c r="K6">
-        <v>1.058139995982601</v>
+        <v>1.070870760388988</v>
       </c>
       <c r="L6">
-        <v>1.056766766724717</v>
+        <v>1.076221295747097</v>
       </c>
       <c r="M6">
-        <v>1.066477418078479</v>
+        <v>1.084280809783682</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035270279342175</v>
+        <v>1.070047012219359</v>
       </c>
       <c r="D7">
-        <v>1.047276513145722</v>
+        <v>1.068186748721872</v>
       </c>
       <c r="E7">
-        <v>1.045697141219385</v>
+        <v>1.073498520761701</v>
       </c>
       <c r="F7">
-        <v>1.05551058621701</v>
+        <v>1.081578282548709</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054907370919631</v>
+        <v>1.046549180298446</v>
       </c>
       <c r="J7">
-        <v>1.053807085179306</v>
+        <v>1.074419370636739</v>
       </c>
       <c r="K7">
-        <v>1.056833145163665</v>
+        <v>1.070591283720959</v>
       </c>
       <c r="L7">
-        <v>1.05527080758844</v>
+        <v>1.075890548780578</v>
       </c>
       <c r="M7">
-        <v>1.064979419601609</v>
+        <v>1.083951538662843</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026252143420053</v>
+        <v>1.06816452851177</v>
       </c>
       <c r="D8">
-        <v>1.040554553211258</v>
+        <v>1.066772241854073</v>
       </c>
       <c r="E8">
-        <v>1.038159367684264</v>
+        <v>1.071871371027985</v>
       </c>
       <c r="F8">
-        <v>1.047977917772192</v>
+        <v>1.079959177103674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05246139284781</v>
+        <v>1.046143715684217</v>
       </c>
       <c r="J8">
-        <v>1.04712529757697</v>
+        <v>1.072991423434311</v>
       </c>
       <c r="K8">
-        <v>1.051211840139445</v>
+        <v>1.069420451353884</v>
       </c>
       <c r="L8">
-        <v>1.048846112011632</v>
+        <v>1.07450627491398</v>
       </c>
       <c r="M8">
-        <v>1.058544969759477</v>
+        <v>1.082573254714964</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009363938812814</v>
+        <v>1.064842687390795</v>
       </c>
       <c r="D9">
-        <v>1.027990683085541</v>
+        <v>1.064274062646976</v>
       </c>
       <c r="E9">
-        <v>1.024093190069006</v>
+        <v>1.069001456812277</v>
       </c>
       <c r="F9">
-        <v>1.033918830188645</v>
+        <v>1.07710279820803</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047790036606048</v>
+        <v>1.045416553610883</v>
       </c>
       <c r="J9">
-        <v>1.03459031096055</v>
+        <v>1.070467011085584</v>
       </c>
       <c r="K9">
-        <v>1.040645386807731</v>
+        <v>1.067347083910478</v>
       </c>
       <c r="L9">
-        <v>1.036807102495388</v>
+        <v>1.072060008845984</v>
       </c>
       <c r="M9">
-        <v>1.046484565030717</v>
+        <v>1.08013687617183</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9973220738563512</v>
+        <v>1.062624699915222</v>
       </c>
       <c r="D10">
-        <v>1.019056757781774</v>
+        <v>1.062604657164431</v>
       </c>
       <c r="E10">
-        <v>1.014104198554071</v>
+        <v>1.067086188287851</v>
       </c>
       <c r="F10">
-        <v>1.023934086780451</v>
+        <v>1.075196130388799</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044401806717383</v>
+        <v>1.04492319059676</v>
       </c>
       <c r="J10">
-        <v>1.025642344249356</v>
+        <v>1.068778366064113</v>
       </c>
       <c r="K10">
-        <v>1.033090255058745</v>
+        <v>1.065957817945277</v>
       </c>
       <c r="L10">
-        <v>1.028223382774552</v>
+        <v>1.070424276395137</v>
       </c>
       <c r="M10">
-        <v>1.037884244557225</v>
+        <v>1.078507292869471</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9918930978607332</v>
+        <v>1.061663408848762</v>
       </c>
       <c r="D11">
-        <v>1.015036814344854</v>
+        <v>1.061880811749488</v>
       </c>
       <c r="E11">
-        <v>1.009612127404437</v>
+        <v>1.066256338498263</v>
       </c>
       <c r="F11">
-        <v>1.019443958581816</v>
+        <v>1.07436990608512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042861707118896</v>
+        <v>1.044707507780898</v>
       </c>
       <c r="J11">
-        <v>1.021607066161507</v>
+        <v>1.06804576642748</v>
       </c>
       <c r="K11">
-        <v>1.029680622457173</v>
+        <v>1.06535454990176</v>
       </c>
       <c r="L11">
-        <v>1.024355021464567</v>
+        <v>1.069714785383795</v>
       </c>
       <c r="M11">
-        <v>1.0340082754752</v>
+        <v>1.077800360891305</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9898414546615824</v>
+        <v>1.061306203454834</v>
       </c>
       <c r="D12">
-        <v>1.013519022203076</v>
+        <v>1.061611792551954</v>
       </c>
       <c r="E12">
-        <v>1.0079164204079</v>
+        <v>1.065948012381001</v>
       </c>
       <c r="F12">
-        <v>1.017749010752228</v>
+        <v>1.074062911940763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042277911344879</v>
+        <v>1.04462708380217</v>
       </c>
       <c r="J12">
-        <v>1.020082052821304</v>
+        <v>1.0677734312294</v>
       </c>
       <c r="K12">
-        <v>1.02839172275493</v>
+        <v>1.065130209748009</v>
       </c>
       <c r="L12">
-        <v>1.022893509792402</v>
+        <v>1.069451063685283</v>
       </c>
       <c r="M12">
-        <v>1.032543888700047</v>
+        <v>1.077537574279896</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9902831753206848</v>
+        <v>1.061382831610345</v>
       </c>
       <c r="D13">
-        <v>1.013845739184941</v>
+        <v>1.061669504958972</v>
       </c>
       <c r="E13">
-        <v>1.008281420271162</v>
+        <v>1.066014153197382</v>
       </c>
       <c r="F13">
-        <v>1.018113845687442</v>
+        <v>1.074128767707264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042403681854052</v>
+        <v>1.044644349057355</v>
       </c>
       <c r="J13">
-        <v>1.020410390161871</v>
+        <v>1.067831857850194</v>
       </c>
       <c r="K13">
-        <v>1.028669238719031</v>
+        <v>1.065178343267756</v>
       </c>
       <c r="L13">
-        <v>1.023208155783788</v>
+        <v>1.069507641321918</v>
       </c>
       <c r="M13">
-        <v>1.032859153392746</v>
+        <v>1.077593952034612</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9917242414546332</v>
+        <v>1.06163388500994</v>
       </c>
       <c r="D14">
-        <v>1.014911866549778</v>
+        <v>1.061858577633596</v>
       </c>
       <c r="E14">
-        <v>1.009472526595495</v>
+        <v>1.066230853880431</v>
       </c>
       <c r="F14">
-        <v>1.019304419622794</v>
+        <v>1.074344531867579</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042813694520889</v>
+        <v>1.044700866236536</v>
       </c>
       <c r="J14">
-        <v>1.021481553419646</v>
+        <v>1.068023259525471</v>
       </c>
       <c r="K14">
-        <v>1.029574548955585</v>
+        <v>1.0653360111874</v>
       </c>
       <c r="L14">
-        <v>1.024234726417613</v>
+        <v>1.069692989864042</v>
       </c>
       <c r="M14">
-        <v>1.033887743687955</v>
+        <v>1.077778642980712</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9926073916991328</v>
+        <v>1.061788548693427</v>
       </c>
       <c r="D15">
-        <v>1.015565423489881</v>
+        <v>1.061975051470382</v>
       </c>
       <c r="E15">
-        <v>1.01020274188549</v>
+        <v>1.066364359212258</v>
       </c>
       <c r="F15">
-        <v>1.020034312567813</v>
+        <v>1.074477458233664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04306473742162</v>
+        <v>1.044735647248933</v>
       </c>
       <c r="J15">
-        <v>1.022138006685717</v>
+        <v>1.068141159796478</v>
       </c>
       <c r="K15">
-        <v>1.030129318469275</v>
+        <v>1.065433121110703</v>
       </c>
       <c r="L15">
-        <v>1.024863907475173</v>
+        <v>1.069807164574881</v>
       </c>
       <c r="M15">
-        <v>1.034518163051931</v>
+        <v>1.077892410480758</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9976776194096879</v>
+        <v>1.062688478445374</v>
       </c>
       <c r="D16">
-        <v>1.019320203482276</v>
+        <v>1.062652675435858</v>
       </c>
       <c r="E16">
-        <v>1.014398635236094</v>
+        <v>1.067141251269106</v>
       </c>
       <c r="F16">
-        <v>1.024228398492426</v>
+        <v>1.075250950690679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044502416747067</v>
+        <v>1.044937461383469</v>
       </c>
       <c r="J16">
-        <v>1.0259066015786</v>
+        <v>1.068826956345889</v>
       </c>
       <c r="K16">
-        <v>1.033313492916963</v>
+        <v>1.065997818633488</v>
       </c>
       <c r="L16">
-        <v>1.028476766022827</v>
+        <v>1.070471337213379</v>
       </c>
       <c r="M16">
-        <v>1.038138124996486</v>
+        <v>1.078554181680111</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000798653407448</v>
+        <v>1.06325273888295</v>
       </c>
       <c r="D17">
-        <v>1.021633678619297</v>
+        <v>1.063077465879554</v>
       </c>
       <c r="E17">
-        <v>1.016984551256485</v>
+        <v>1.067628431556767</v>
       </c>
       <c r="F17">
-        <v>1.026813222939375</v>
+        <v>1.075735972173208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0453841802643</v>
+        <v>1.045063503408981</v>
       </c>
       <c r="J17">
-        <v>1.028226175101456</v>
+        <v>1.069256759402474</v>
       </c>
       <c r="K17">
-        <v>1.035272733536172</v>
+        <v>1.066351579332152</v>
       </c>
       <c r="L17">
-        <v>1.03070119224923</v>
+        <v>1.070887629158736</v>
       </c>
       <c r="M17">
-        <v>1.04036690373567</v>
+        <v>1.078968939611039</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00259858409292</v>
+        <v>1.063581777172038</v>
       </c>
       <c r="D18">
-        <v>1.02296860758237</v>
+        <v>1.063325144449754</v>
       </c>
       <c r="E18">
-        <v>1.018476934753975</v>
+        <v>1.067912545105213</v>
       </c>
       <c r="F18">
-        <v>1.028304978081037</v>
+        <v>1.076018816997507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045891513530646</v>
+        <v>1.045136823556443</v>
       </c>
       <c r="J18">
-        <v>1.029563778234474</v>
+        <v>1.069507320941726</v>
       </c>
       <c r="K18">
-        <v>1.036402310644979</v>
+        <v>1.0665577575025</v>
       </c>
       <c r="L18">
-        <v>1.031984175968397</v>
+        <v>1.071130328894869</v>
       </c>
       <c r="M18">
-        <v>1.04165238468067</v>
+        <v>1.079210734580222</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003208914341865</v>
+        <v>1.063693956432597</v>
       </c>
       <c r="D19">
-        <v>1.023421380210749</v>
+        <v>1.063409580509603</v>
       </c>
       <c r="E19">
-        <v>1.018983155543814</v>
+        <v>1.068009412041063</v>
       </c>
       <c r="F19">
-        <v>1.028810985419302</v>
+        <v>1.076115249710843</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04606333839512</v>
+        <v>1.045161790280513</v>
       </c>
       <c r="J19">
-        <v>1.030017316731181</v>
+        <v>1.069592733119341</v>
       </c>
       <c r="K19">
-        <v>1.036785272792724</v>
+        <v>1.066628031129198</v>
       </c>
       <c r="L19">
-        <v>1.03241923624235</v>
+        <v>1.071213063614063</v>
       </c>
       <c r="M19">
-        <v>1.04208828901778</v>
+        <v>1.079293159097327</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000465937318909</v>
+        <v>1.063192207941634</v>
       </c>
       <c r="D20">
-        <v>1.021386975248544</v>
+        <v>1.063031899685452</v>
       </c>
       <c r="E20">
-        <v>1.016708769835213</v>
+        <v>1.067576166972854</v>
       </c>
       <c r="F20">
-        <v>1.026537557623</v>
+        <v>1.075683940193394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045290303115977</v>
+        <v>1.045050000785791</v>
       </c>
       <c r="J20">
-        <v>1.027978909672028</v>
+        <v>1.069210659627972</v>
       </c>
       <c r="K20">
-        <v>1.035063903731513</v>
+        <v>1.066313641191711</v>
       </c>
       <c r="L20">
-        <v>1.030464043548303</v>
+        <v>1.070842977031087</v>
       </c>
       <c r="M20">
-        <v>1.040129292253446</v>
+        <v>1.078924453102396</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9913008760220582</v>
+        <v>1.06155995992659</v>
       </c>
       <c r="D21">
-        <v>1.014598613739427</v>
+        <v>1.061802904632118</v>
       </c>
       <c r="E21">
-        <v>1.009122543028241</v>
+        <v>1.06616704325222</v>
       </c>
       <c r="F21">
-        <v>1.018954591603663</v>
+        <v>1.074280997426543</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042693286561182</v>
+        <v>1.044684231897626</v>
       </c>
       <c r="J21">
-        <v>1.021166860943673</v>
+        <v>1.067966902471656</v>
       </c>
       <c r="K21">
-        <v>1.029308590451746</v>
+        <v>1.065289589104666</v>
       </c>
       <c r="L21">
-        <v>1.023933122876577</v>
+        <v>1.069638414478436</v>
       </c>
       <c r="M21">
-        <v>1.033585546644094</v>
+        <v>1.077724261666395</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.985333832067214</v>
+        <v>1.060532893239586</v>
       </c>
       <c r="D22">
-        <v>1.010187064077666</v>
+        <v>1.061029312654418</v>
       </c>
       <c r="E22">
-        <v>1.00419446896314</v>
+        <v>1.065280589309959</v>
       </c>
       <c r="F22">
-        <v>1.014028797940794</v>
+        <v>1.073398344745313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040992100244719</v>
+        <v>1.044452465562613</v>
       </c>
       <c r="J22">
-        <v>1.016731512750137</v>
+        <v>1.06718365665533</v>
       </c>
       <c r="K22">
-        <v>1.025559378921641</v>
+        <v>1.06464422372204</v>
       </c>
       <c r="L22">
-        <v>1.019683288054842</v>
+        <v>1.068879985169137</v>
       </c>
       <c r="M22">
-        <v>1.029327371971433</v>
+        <v>1.076968491307627</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9885174980888375</v>
+        <v>1.061077439181402</v>
       </c>
       <c r="D23">
-        <v>1.012539979208308</v>
+        <v>1.061439492341992</v>
       </c>
       <c r="E23">
-        <v>1.00682270509784</v>
+        <v>1.065750562321906</v>
       </c>
       <c r="F23">
-        <v>1.016655795137198</v>
+        <v>1.073866310645374</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041900690083446</v>
+        <v>1.044575499659264</v>
       </c>
       <c r="J23">
-        <v>1.019097938108844</v>
+        <v>1.067598989546023</v>
       </c>
       <c r="K23">
-        <v>1.027559888334589</v>
+        <v>1.064986487655508</v>
       </c>
       <c r="L23">
-        <v>1.021950495165729</v>
+        <v>1.069282145828863</v>
       </c>
       <c r="M23">
-        <v>1.031599021164439</v>
+        <v>1.077369250838983</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000616340588786</v>
+        <v>1.063219559531654</v>
       </c>
       <c r="D24">
-        <v>1.02149849449959</v>
+        <v>1.063052489379091</v>
       </c>
       <c r="E24">
-        <v>1.016833432685408</v>
+        <v>1.067599783244402</v>
       </c>
       <c r="F24">
-        <v>1.026662167986255</v>
+        <v>1.075707451390623</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045332743685381</v>
+        <v>1.045056102651841</v>
       </c>
       <c r="J24">
-        <v>1.028090685611524</v>
+        <v>1.069231490549623</v>
       </c>
       <c r="K24">
-        <v>1.035158305647087</v>
+        <v>1.066330784312364</v>
       </c>
       <c r="L24">
-        <v>1.030571245468075</v>
+        <v>1.070863153764762</v>
       </c>
       <c r="M24">
-        <v>1.040236703413515</v>
+        <v>1.07894455503089</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013859003398564</v>
+        <v>1.065702045544787</v>
       </c>
       <c r="D25">
-        <v>1.031331175836808</v>
+        <v>1.064920586572348</v>
       </c>
       <c r="E25">
-        <v>1.027830704055783</v>
+        <v>1.069743735003673</v>
       </c>
       <c r="F25">
-        <v>1.037654660992098</v>
+        <v>1.077841652257169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049043516998189</v>
+        <v>1.045606051622896</v>
       </c>
       <c r="J25">
-        <v>1.037928792131812</v>
+        <v>1.07112062281017</v>
       </c>
       <c r="K25">
-        <v>1.043461833555129</v>
+        <v>1.067884325135805</v>
       </c>
       <c r="L25">
-        <v>1.040011817321476</v>
+        <v>1.072693275409669</v>
       </c>
       <c r="M25">
-        <v>1.049695263336504</v>
+        <v>1.080767665029963</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.067679594307382</v>
+        <v>1.023866597785184</v>
       </c>
       <c r="D2">
-        <v>1.066407713249684</v>
+        <v>1.038777754927364</v>
       </c>
       <c r="E2">
-        <v>1.071452302287768</v>
+        <v>1.036168485715742</v>
       </c>
       <c r="F2">
-        <v>1.079542135599914</v>
+        <v>1.04598819469396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046038474011035</v>
+        <v>1.051808223324889</v>
       </c>
       <c r="J2">
-        <v>1.072623263039358</v>
+        <v>1.045356165077591</v>
       </c>
       <c r="K2">
-        <v>1.069118343834023</v>
+        <v>1.049722048555595</v>
       </c>
       <c r="L2">
-        <v>1.074149437883078</v>
+        <v>1.047145923655427</v>
       </c>
       <c r="M2">
-        <v>1.082217914197943</v>
+        <v>1.056841968962733</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069114138464885</v>
+        <v>1.030848680007723</v>
       </c>
       <c r="D3">
-        <v>1.067485898513489</v>
+        <v>1.043979788809674</v>
       </c>
       <c r="E3">
-        <v>1.072692109069217</v>
+        <v>1.041999081852363</v>
       </c>
       <c r="F3">
-        <v>1.080775892446985</v>
+        <v>1.051815187796186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046348868933507</v>
+        <v>1.053712889679286</v>
       </c>
       <c r="J3">
-        <v>1.073711991790584</v>
+        <v>1.050532301821679</v>
       </c>
       <c r="K3">
-        <v>1.070011460488644</v>
+        <v>1.054079243815487</v>
       </c>
       <c r="L3">
-        <v>1.075204755659584</v>
+        <v>1.052121363757353</v>
       </c>
       <c r="M3">
-        <v>1.083268750247478</v>
+        <v>1.061825381433924</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070041802431421</v>
+        <v>1.035245839276771</v>
       </c>
       <c r="D4">
-        <v>1.068182835352751</v>
+        <v>1.04725828621014</v>
       </c>
       <c r="E4">
-        <v>1.073494016840618</v>
+        <v>1.045676688448917</v>
       </c>
       <c r="F4">
-        <v>1.081573801282444</v>
+        <v>1.055490149095464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046548065051609</v>
+        <v>1.05490079521535</v>
       </c>
       <c r="J4">
-        <v>1.074415421533425</v>
+        <v>1.053788991625406</v>
       </c>
       <c r="K4">
-        <v>1.070588047754985</v>
+        <v>1.056817935937108</v>
       </c>
       <c r="L4">
-        <v>1.075886719912772</v>
+        <v>1.055253402972065</v>
       </c>
       <c r="M4">
-        <v>1.083947726777279</v>
+        <v>1.064961990690783</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070431657631806</v>
+        <v>1.037066980164064</v>
       </c>
       <c r="D5">
-        <v>1.06847565750326</v>
+        <v>1.04861658672465</v>
       </c>
       <c r="E5">
-        <v>1.073831062954426</v>
+        <v>1.047201082737272</v>
       </c>
       <c r="F5">
-        <v>1.081909145960604</v>
+        <v>1.057013346338265</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046631413012683</v>
+        <v>1.055389936726805</v>
       </c>
       <c r="J5">
-        <v>1.074710895026525</v>
+        <v>1.055136979386078</v>
       </c>
       <c r="K5">
-        <v>1.070830131727059</v>
+        <v>1.057950834811944</v>
       </c>
       <c r="L5">
-        <v>1.076173205838834</v>
+        <v>1.056550174800432</v>
       </c>
       <c r="M5">
-        <v>1.084232935555082</v>
+        <v>1.06626053698097</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070497108268382</v>
+        <v>1.037371190369419</v>
       </c>
       <c r="D6">
-        <v>1.068524813729913</v>
+        <v>1.048843507025523</v>
       </c>
       <c r="E6">
-        <v>1.073887650118832</v>
+        <v>1.047455795331254</v>
       </c>
       <c r="F6">
-        <v>1.081965446253595</v>
+        <v>1.057267852692967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046645384420545</v>
+        <v>1.055471475785758</v>
       </c>
       <c r="J6">
-        <v>1.074760491852503</v>
+        <v>1.055362102757685</v>
       </c>
       <c r="K6">
-        <v>1.070870760388988</v>
+        <v>1.058139995982601</v>
       </c>
       <c r="L6">
-        <v>1.076221295747097</v>
+        <v>1.056766766724717</v>
       </c>
       <c r="M6">
-        <v>1.084280809783682</v>
+        <v>1.066477418078478</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070047012219359</v>
+        <v>1.035270279342177</v>
       </c>
       <c r="D7">
-        <v>1.068186748721872</v>
+        <v>1.047276513145722</v>
       </c>
       <c r="E7">
-        <v>1.073498520761701</v>
+        <v>1.045697141219385</v>
       </c>
       <c r="F7">
-        <v>1.081578282548709</v>
+        <v>1.05551058621701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046549180298446</v>
+        <v>1.054907370919631</v>
       </c>
       <c r="J7">
-        <v>1.074419370636739</v>
+        <v>1.053807085179307</v>
       </c>
       <c r="K7">
-        <v>1.070591283720959</v>
+        <v>1.056833145163666</v>
       </c>
       <c r="L7">
-        <v>1.075890548780578</v>
+        <v>1.05527080758844</v>
       </c>
       <c r="M7">
-        <v>1.083951538662843</v>
+        <v>1.06497941960161</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06816452851177</v>
+        <v>1.026252143420053</v>
       </c>
       <c r="D8">
-        <v>1.066772241854073</v>
+        <v>1.040554553211258</v>
       </c>
       <c r="E8">
-        <v>1.071871371027985</v>
+        <v>1.038159367684264</v>
       </c>
       <c r="F8">
-        <v>1.079959177103674</v>
+        <v>1.047977917772193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046143715684217</v>
+        <v>1.05246139284781</v>
       </c>
       <c r="J8">
-        <v>1.072991423434311</v>
+        <v>1.04712529757697</v>
       </c>
       <c r="K8">
-        <v>1.069420451353884</v>
+        <v>1.051211840139445</v>
       </c>
       <c r="L8">
-        <v>1.07450627491398</v>
+        <v>1.048846112011632</v>
       </c>
       <c r="M8">
-        <v>1.082573254714964</v>
+        <v>1.058544969759478</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064842687390795</v>
+        <v>1.009363938812813</v>
       </c>
       <c r="D9">
-        <v>1.064274062646976</v>
+        <v>1.02799068308554</v>
       </c>
       <c r="E9">
-        <v>1.069001456812277</v>
+        <v>1.024093190069005</v>
       </c>
       <c r="F9">
-        <v>1.07710279820803</v>
+        <v>1.033918830188645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045416553610883</v>
+        <v>1.047790036606047</v>
       </c>
       <c r="J9">
-        <v>1.070467011085584</v>
+        <v>1.034590310960549</v>
       </c>
       <c r="K9">
-        <v>1.067347083910478</v>
+        <v>1.04064538680773</v>
       </c>
       <c r="L9">
-        <v>1.072060008845984</v>
+        <v>1.036807102495387</v>
       </c>
       <c r="M9">
-        <v>1.08013687617183</v>
+        <v>1.046484565030716</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062624699915222</v>
+        <v>0.9973220738563517</v>
       </c>
       <c r="D10">
-        <v>1.062604657164431</v>
+        <v>1.019056757781774</v>
       </c>
       <c r="E10">
-        <v>1.067086188287851</v>
+        <v>1.014104198554072</v>
       </c>
       <c r="F10">
-        <v>1.075196130388799</v>
+        <v>1.023934086780451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04492319059676</v>
+        <v>1.044401806717383</v>
       </c>
       <c r="J10">
-        <v>1.068778366064113</v>
+        <v>1.025642344249357</v>
       </c>
       <c r="K10">
-        <v>1.065957817945277</v>
+        <v>1.033090255058745</v>
       </c>
       <c r="L10">
-        <v>1.070424276395137</v>
+        <v>1.028223382774553</v>
       </c>
       <c r="M10">
-        <v>1.078507292869471</v>
+        <v>1.037884244557226</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061663408848762</v>
+        <v>0.9918930978607317</v>
       </c>
       <c r="D11">
-        <v>1.061880811749488</v>
+        <v>1.015036814344853</v>
       </c>
       <c r="E11">
-        <v>1.066256338498263</v>
+        <v>1.009612127404435</v>
       </c>
       <c r="F11">
-        <v>1.07436990608512</v>
+        <v>1.019443958581815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044707507780898</v>
+        <v>1.042861707118895</v>
       </c>
       <c r="J11">
-        <v>1.06804576642748</v>
+        <v>1.021607066161506</v>
       </c>
       <c r="K11">
-        <v>1.06535454990176</v>
+        <v>1.029680622457172</v>
       </c>
       <c r="L11">
-        <v>1.069714785383795</v>
+        <v>1.024355021464565</v>
       </c>
       <c r="M11">
-        <v>1.077800360891305</v>
+        <v>1.034008275475198</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061306203454834</v>
+        <v>0.9898414546615831</v>
       </c>
       <c r="D12">
-        <v>1.061611792551954</v>
+        <v>1.013519022203077</v>
       </c>
       <c r="E12">
-        <v>1.065948012381001</v>
+        <v>1.0079164204079</v>
       </c>
       <c r="F12">
-        <v>1.074062911940763</v>
+        <v>1.017749010752229</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04462708380217</v>
+        <v>1.042277911344879</v>
       </c>
       <c r="J12">
-        <v>1.0677734312294</v>
+        <v>1.020082052821304</v>
       </c>
       <c r="K12">
-        <v>1.065130209748009</v>
+        <v>1.02839172275493</v>
       </c>
       <c r="L12">
-        <v>1.069451063685283</v>
+        <v>1.022893509792403</v>
       </c>
       <c r="M12">
-        <v>1.077537574279896</v>
+        <v>1.032543888700048</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061382831610345</v>
+        <v>0.9902831753206833</v>
       </c>
       <c r="D13">
-        <v>1.061669504958972</v>
+        <v>1.013845739184939</v>
       </c>
       <c r="E13">
-        <v>1.066014153197382</v>
+        <v>1.00828142027116</v>
       </c>
       <c r="F13">
-        <v>1.074128767707264</v>
+        <v>1.018113845687441</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044644349057355</v>
+        <v>1.042403681854051</v>
       </c>
       <c r="J13">
-        <v>1.067831857850194</v>
+        <v>1.02041039016187</v>
       </c>
       <c r="K13">
-        <v>1.065178343267756</v>
+        <v>1.02866923871903</v>
       </c>
       <c r="L13">
-        <v>1.069507641321918</v>
+        <v>1.023208155783787</v>
       </c>
       <c r="M13">
-        <v>1.077593952034612</v>
+        <v>1.032859153392744</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06163388500994</v>
+        <v>0.991724241454632</v>
       </c>
       <c r="D14">
-        <v>1.061858577633596</v>
+        <v>1.014911866549777</v>
       </c>
       <c r="E14">
-        <v>1.066230853880431</v>
+        <v>1.009472526595494</v>
       </c>
       <c r="F14">
-        <v>1.074344531867579</v>
+        <v>1.019304419622794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044700866236536</v>
+        <v>1.042813694520888</v>
       </c>
       <c r="J14">
-        <v>1.068023259525471</v>
+        <v>1.021481553419645</v>
       </c>
       <c r="K14">
-        <v>1.0653360111874</v>
+        <v>1.029574548955584</v>
       </c>
       <c r="L14">
-        <v>1.069692989864042</v>
+        <v>1.024234726417612</v>
       </c>
       <c r="M14">
-        <v>1.077778642980712</v>
+        <v>1.033887743687954</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061788548693427</v>
+        <v>0.9926073916991309</v>
       </c>
       <c r="D15">
-        <v>1.061975051470382</v>
+        <v>1.01556542348988</v>
       </c>
       <c r="E15">
-        <v>1.066364359212258</v>
+        <v>1.010202741885488</v>
       </c>
       <c r="F15">
-        <v>1.074477458233664</v>
+        <v>1.020034312567812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044735647248933</v>
+        <v>1.04306473742162</v>
       </c>
       <c r="J15">
-        <v>1.068141159796478</v>
+        <v>1.022138006685716</v>
       </c>
       <c r="K15">
-        <v>1.065433121110703</v>
+        <v>1.030129318469273</v>
       </c>
       <c r="L15">
-        <v>1.069807164574881</v>
+        <v>1.024863907475171</v>
       </c>
       <c r="M15">
-        <v>1.077892410480758</v>
+        <v>1.03451816305193</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062688478445374</v>
+        <v>0.9976776194096861</v>
       </c>
       <c r="D16">
-        <v>1.062652675435858</v>
+        <v>1.019320203482274</v>
       </c>
       <c r="E16">
-        <v>1.067141251269106</v>
+        <v>1.014398635236092</v>
       </c>
       <c r="F16">
-        <v>1.075250950690679</v>
+        <v>1.024228398492425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044937461383469</v>
+        <v>1.044502416747067</v>
       </c>
       <c r="J16">
-        <v>1.068826956345889</v>
+        <v>1.025906601578599</v>
       </c>
       <c r="K16">
-        <v>1.065997818633488</v>
+        <v>1.033313492916961</v>
       </c>
       <c r="L16">
-        <v>1.070471337213379</v>
+        <v>1.028476766022826</v>
       </c>
       <c r="M16">
-        <v>1.078554181680111</v>
+        <v>1.038138124996485</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06325273888295</v>
+        <v>1.000798653407448</v>
       </c>
       <c r="D17">
-        <v>1.063077465879554</v>
+        <v>1.021633678619298</v>
       </c>
       <c r="E17">
-        <v>1.067628431556767</v>
+        <v>1.016984551256485</v>
       </c>
       <c r="F17">
-        <v>1.075735972173208</v>
+        <v>1.026813222939375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045063503408981</v>
+        <v>1.0453841802643</v>
       </c>
       <c r="J17">
-        <v>1.069256759402474</v>
+        <v>1.028226175101456</v>
       </c>
       <c r="K17">
-        <v>1.066351579332152</v>
+        <v>1.035272733536172</v>
       </c>
       <c r="L17">
-        <v>1.070887629158736</v>
+        <v>1.03070119224923</v>
       </c>
       <c r="M17">
-        <v>1.078968939611039</v>
+        <v>1.040366903735671</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063581777172038</v>
+        <v>1.00259858409292</v>
       </c>
       <c r="D18">
-        <v>1.063325144449754</v>
+        <v>1.02296860758237</v>
       </c>
       <c r="E18">
-        <v>1.067912545105213</v>
+        <v>1.018476934753975</v>
       </c>
       <c r="F18">
-        <v>1.076018816997507</v>
+        <v>1.028304978081037</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045136823556443</v>
+        <v>1.045891513530646</v>
       </c>
       <c r="J18">
-        <v>1.069507320941726</v>
+        <v>1.029563778234474</v>
       </c>
       <c r="K18">
-        <v>1.0665577575025</v>
+        <v>1.03640231064498</v>
       </c>
       <c r="L18">
-        <v>1.071130328894869</v>
+        <v>1.031984175968398</v>
       </c>
       <c r="M18">
-        <v>1.079210734580222</v>
+        <v>1.04165238468067</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063693956432597</v>
+        <v>1.003208914341865</v>
       </c>
       <c r="D19">
-        <v>1.063409580509603</v>
+        <v>1.023421380210749</v>
       </c>
       <c r="E19">
-        <v>1.068009412041063</v>
+        <v>1.018983155543813</v>
       </c>
       <c r="F19">
-        <v>1.076115249710843</v>
+        <v>1.028810985419301</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045161790280513</v>
+        <v>1.04606333839512</v>
       </c>
       <c r="J19">
-        <v>1.069592733119341</v>
+        <v>1.030017316731181</v>
       </c>
       <c r="K19">
-        <v>1.066628031129198</v>
+        <v>1.036785272792725</v>
       </c>
       <c r="L19">
-        <v>1.071213063614063</v>
+        <v>1.03241923624235</v>
       </c>
       <c r="M19">
-        <v>1.079293159097327</v>
+        <v>1.04208828901778</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063192207941634</v>
+        <v>1.000465937318908</v>
       </c>
       <c r="D20">
-        <v>1.063031899685452</v>
+        <v>1.021386975248542</v>
       </c>
       <c r="E20">
-        <v>1.067576166972854</v>
+        <v>1.016708769835212</v>
       </c>
       <c r="F20">
-        <v>1.075683940193394</v>
+        <v>1.026537557622999</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045050000785791</v>
+        <v>1.045290303115977</v>
       </c>
       <c r="J20">
-        <v>1.069210659627972</v>
+        <v>1.027978909672027</v>
       </c>
       <c r="K20">
-        <v>1.066313641191711</v>
+        <v>1.035063903731512</v>
       </c>
       <c r="L20">
-        <v>1.070842977031087</v>
+        <v>1.030464043548302</v>
       </c>
       <c r="M20">
-        <v>1.078924453102396</v>
+        <v>1.040129292253445</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.06155995992659</v>
+        <v>0.9913008760220566</v>
       </c>
       <c r="D21">
-        <v>1.061802904632118</v>
+        <v>1.014598613739426</v>
       </c>
       <c r="E21">
-        <v>1.06616704325222</v>
+        <v>1.00912254302824</v>
       </c>
       <c r="F21">
-        <v>1.074280997426543</v>
+        <v>1.018954591603662</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044684231897626</v>
+        <v>1.042693286561182</v>
       </c>
       <c r="J21">
-        <v>1.067966902471656</v>
+        <v>1.021166860943672</v>
       </c>
       <c r="K21">
-        <v>1.065289589104666</v>
+        <v>1.029308590451744</v>
       </c>
       <c r="L21">
-        <v>1.069638414478436</v>
+        <v>1.023933122876575</v>
       </c>
       <c r="M21">
-        <v>1.077724261666395</v>
+        <v>1.033585546644093</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060532893239586</v>
+        <v>0.985333832067214</v>
       </c>
       <c r="D22">
-        <v>1.061029312654418</v>
+        <v>1.010187064077665</v>
       </c>
       <c r="E22">
-        <v>1.065280589309959</v>
+        <v>1.00419446896314</v>
       </c>
       <c r="F22">
-        <v>1.073398344745313</v>
+        <v>1.014028797940793</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044452465562613</v>
+        <v>1.040992100244719</v>
       </c>
       <c r="J22">
-        <v>1.06718365665533</v>
+        <v>1.016731512750136</v>
       </c>
       <c r="K22">
-        <v>1.06464422372204</v>
+        <v>1.025559378921641</v>
       </c>
       <c r="L22">
-        <v>1.068879985169137</v>
+        <v>1.019683288054842</v>
       </c>
       <c r="M22">
-        <v>1.076968491307627</v>
+        <v>1.029327371971432</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061077439181402</v>
+        <v>0.988517498088838</v>
       </c>
       <c r="D23">
-        <v>1.061439492341992</v>
+        <v>1.012539979208309</v>
       </c>
       <c r="E23">
-        <v>1.065750562321906</v>
+        <v>1.006822705097841</v>
       </c>
       <c r="F23">
-        <v>1.073866310645374</v>
+        <v>1.016655795137199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044575499659264</v>
+        <v>1.041900690083446</v>
       </c>
       <c r="J23">
-        <v>1.067598989546023</v>
+        <v>1.019097938108845</v>
       </c>
       <c r="K23">
-        <v>1.064986487655508</v>
+        <v>1.02755988833459</v>
       </c>
       <c r="L23">
-        <v>1.069282145828863</v>
+        <v>1.02195049516573</v>
       </c>
       <c r="M23">
-        <v>1.077369250838983</v>
+        <v>1.03159902116444</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063219559531654</v>
+        <v>1.000616340588788</v>
       </c>
       <c r="D24">
-        <v>1.063052489379091</v>
+        <v>1.02149849449959</v>
       </c>
       <c r="E24">
-        <v>1.067599783244402</v>
+        <v>1.016833432685409</v>
       </c>
       <c r="F24">
-        <v>1.075707451390623</v>
+        <v>1.026662167986256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045056102651841</v>
+        <v>1.045332743685381</v>
       </c>
       <c r="J24">
-        <v>1.069231490549623</v>
+        <v>1.028090685611525</v>
       </c>
       <c r="K24">
-        <v>1.066330784312364</v>
+        <v>1.035158305647088</v>
       </c>
       <c r="L24">
-        <v>1.070863153764762</v>
+        <v>1.030571245468076</v>
       </c>
       <c r="M24">
-        <v>1.07894455503089</v>
+        <v>1.040236703413516</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065702045544787</v>
+        <v>1.013859003398562</v>
       </c>
       <c r="D25">
-        <v>1.064920586572348</v>
+        <v>1.031331175836806</v>
       </c>
       <c r="E25">
-        <v>1.069743735003673</v>
+        <v>1.027830704055781</v>
       </c>
       <c r="F25">
-        <v>1.077841652257169</v>
+        <v>1.037654660992096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045606051622896</v>
+        <v>1.049043516998188</v>
       </c>
       <c r="J25">
-        <v>1.07112062281017</v>
+        <v>1.03792879213181</v>
       </c>
       <c r="K25">
-        <v>1.067884325135805</v>
+        <v>1.043461833555128</v>
       </c>
       <c r="L25">
-        <v>1.072693275409669</v>
+        <v>1.040011817321474</v>
       </c>
       <c r="M25">
-        <v>1.080767665029963</v>
+        <v>1.049695263336502</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023866597785184</v>
+        <v>1.040261134282571</v>
       </c>
       <c r="D2">
-        <v>1.038777754927364</v>
+        <v>1.052422443680383</v>
       </c>
       <c r="E2">
-        <v>1.036168485715742</v>
+        <v>1.049833858766683</v>
       </c>
       <c r="F2">
-        <v>1.04598819469396</v>
+        <v>1.057788290526775</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051808223324889</v>
+        <v>1.061455568415579</v>
       </c>
       <c r="J2">
-        <v>1.045356165077591</v>
+        <v>1.061300887388368</v>
       </c>
       <c r="K2">
-        <v>1.049722048555595</v>
+        <v>1.063196745590379</v>
       </c>
       <c r="L2">
-        <v>1.047145923655427</v>
+        <v>1.06063998771235</v>
       </c>
       <c r="M2">
-        <v>1.056841968962733</v>
+        <v>1.068497234779641</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.062783022687934</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.055755571449488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030848680007723</v>
+        <v>1.044500479894764</v>
       </c>
       <c r="D3">
-        <v>1.043979788809674</v>
+        <v>1.055325069118116</v>
       </c>
       <c r="E3">
-        <v>1.041999081852363</v>
+        <v>1.053157191784698</v>
       </c>
       <c r="F3">
-        <v>1.051815187796186</v>
+        <v>1.060831330429239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053712889679286</v>
+        <v>1.062674358045201</v>
       </c>
       <c r="J3">
-        <v>1.050532301821679</v>
+        <v>1.063847385928651</v>
       </c>
       <c r="K3">
-        <v>1.054079243815487</v>
+        <v>1.065295807245678</v>
       </c>
       <c r="L3">
-        <v>1.052121363757353</v>
+        <v>1.063152261348896</v>
       </c>
       <c r="M3">
-        <v>1.061825381433924</v>
+        <v>1.070740818034207</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.064558613651105</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.057237121282482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035245839276771</v>
+        <v>1.047194664558915</v>
       </c>
       <c r="D4">
-        <v>1.04725828621014</v>
+        <v>1.057173762934717</v>
       </c>
       <c r="E4">
-        <v>1.045676688448917</v>
+        <v>1.055274578802025</v>
       </c>
       <c r="F4">
-        <v>1.055490149095464</v>
+        <v>1.062771331568241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05490079521535</v>
+        <v>1.063441455812105</v>
       </c>
       <c r="J4">
-        <v>1.053788991625406</v>
+        <v>1.065463600117033</v>
       </c>
       <c r="K4">
-        <v>1.056817935937108</v>
+        <v>1.066627851626289</v>
       </c>
       <c r="L4">
-        <v>1.055253402972065</v>
+        <v>1.064748698486873</v>
       </c>
       <c r="M4">
-        <v>1.064961990690783</v>
+        <v>1.072166890353054</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.065687217385654</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.058179823076518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037066980164064</v>
+        <v>1.048321172703048</v>
       </c>
       <c r="D5">
-        <v>1.04861658672465</v>
+        <v>1.057949832899663</v>
       </c>
       <c r="E5">
-        <v>1.047201082737272</v>
+        <v>1.056161967613447</v>
       </c>
       <c r="F5">
-        <v>1.057013346338265</v>
+        <v>1.06358465984467</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055389936726805</v>
+        <v>1.063762469464046</v>
       </c>
       <c r="J5">
-        <v>1.055136979386078</v>
+        <v>1.066140813229613</v>
       </c>
       <c r="K5">
-        <v>1.057950834811944</v>
+        <v>1.067187418497299</v>
       </c>
       <c r="L5">
-        <v>1.056550174800432</v>
+        <v>1.065417908421204</v>
       </c>
       <c r="M5">
-        <v>1.06626053698097</v>
+        <v>1.072764886740486</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.066160475481731</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.058582461487408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037371190369419</v>
+        <v>1.048516021465909</v>
       </c>
       <c r="D6">
-        <v>1.048843507025523</v>
+        <v>1.058086736269581</v>
       </c>
       <c r="E6">
-        <v>1.047455795331254</v>
+        <v>1.05631650777934</v>
       </c>
       <c r="F6">
-        <v>1.057267852692967</v>
+        <v>1.063726317375402</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055471475785758</v>
+        <v>1.063820437690955</v>
       </c>
       <c r="J6">
-        <v>1.055362102757685</v>
+        <v>1.066260314982298</v>
       </c>
       <c r="K6">
-        <v>1.058139995982601</v>
+        <v>1.067287942243281</v>
       </c>
       <c r="L6">
-        <v>1.056766766724717</v>
+        <v>1.065535804619135</v>
       </c>
       <c r="M6">
-        <v>1.066477418078478</v>
+        <v>1.072870378135072</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.066243962004411</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.058662067693779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035270279342177</v>
+        <v>1.047226941487449</v>
       </c>
       <c r="D7">
-        <v>1.047276513145722</v>
+        <v>1.057203019989524</v>
       </c>
       <c r="E7">
-        <v>1.045697141219385</v>
+        <v>1.055302655673685</v>
       </c>
       <c r="F7">
-        <v>1.05551058621701</v>
+        <v>1.062797041479547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054907370919631</v>
+        <v>1.063457553275513</v>
       </c>
       <c r="J7">
-        <v>1.053807085179307</v>
+        <v>1.065489469893883</v>
       </c>
       <c r="K7">
-        <v>1.056833145163666</v>
+        <v>1.066654014403893</v>
       </c>
       <c r="L7">
-        <v>1.05527080758844</v>
+        <v>1.064773685561659</v>
       </c>
       <c r="M7">
-        <v>1.06497941960161</v>
+        <v>1.072189566133439</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.065705163145817</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.058217946545328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026252143420053</v>
+        <v>1.041726043643734</v>
       </c>
       <c r="D8">
-        <v>1.040554553211258</v>
+        <v>1.053433419386552</v>
       </c>
       <c r="E8">
-        <v>1.038159367684264</v>
+        <v>1.05098459778429</v>
       </c>
       <c r="F8">
-        <v>1.047977917772193</v>
+        <v>1.058841625596114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05246139284781</v>
+        <v>1.061886967773967</v>
       </c>
       <c r="J8">
-        <v>1.04712529757697</v>
+        <v>1.062189413327566</v>
       </c>
       <c r="K8">
-        <v>1.051211840139445</v>
+        <v>1.063935161958197</v>
       </c>
       <c r="L8">
-        <v>1.048846112011632</v>
+        <v>1.061515551902415</v>
       </c>
       <c r="M8">
-        <v>1.058544969759478</v>
+        <v>1.069279447263606</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.063402072790272</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.05630004970429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009363938812813</v>
+        <v>1.031611962576434</v>
       </c>
       <c r="D9">
-        <v>1.02799068308554</v>
+        <v>1.046524963494354</v>
       </c>
       <c r="E9">
-        <v>1.024093190069005</v>
+        <v>1.043085021350929</v>
       </c>
       <c r="F9">
-        <v>1.033918830188645</v>
+        <v>1.051615421100544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047790036606047</v>
+        <v>1.058930229364485</v>
       </c>
       <c r="J9">
-        <v>1.034590310960549</v>
+        <v>1.056095765896643</v>
       </c>
       <c r="K9">
-        <v>1.04064538680773</v>
+        <v>1.058905753970162</v>
       </c>
       <c r="L9">
-        <v>1.036807102495387</v>
+        <v>1.055515716608876</v>
       </c>
       <c r="M9">
-        <v>1.046484565030716</v>
+        <v>1.063923120153877</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.059163016746098</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.052740964298506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9973220738563517</v>
+        <v>1.024674441082736</v>
       </c>
       <c r="D10">
-        <v>1.019056757781774</v>
+        <v>1.041835750054118</v>
       </c>
       <c r="E10">
-        <v>1.014104198554072</v>
+        <v>1.037726912850014</v>
       </c>
       <c r="F10">
-        <v>1.023934086780451</v>
+        <v>1.046749170965684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044401806717383</v>
+        <v>1.056898251454299</v>
       </c>
       <c r="J10">
-        <v>1.025642344249357</v>
+        <v>1.051942169222054</v>
       </c>
       <c r="K10">
-        <v>1.033090255058745</v>
+        <v>1.055488610756817</v>
       </c>
       <c r="L10">
-        <v>1.028223382774553</v>
+        <v>1.051446843717765</v>
       </c>
       <c r="M10">
-        <v>1.037884244557226</v>
+        <v>1.06032271465742</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0563639490275</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.050341388605858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9918930978607317</v>
+        <v>1.022352647772228</v>
       </c>
       <c r="D11">
-        <v>1.015036814344853</v>
+        <v>1.040459124238094</v>
       </c>
       <c r="E11">
-        <v>1.009612127404435</v>
+        <v>1.036167023532271</v>
       </c>
       <c r="F11">
-        <v>1.019443958581815</v>
+        <v>1.045559591170016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042861707118895</v>
+        <v>1.056468366282671</v>
       </c>
       <c r="J11">
-        <v>1.021607066161506</v>
+        <v>1.05082421455683</v>
       </c>
       <c r="K11">
-        <v>1.029680622457172</v>
+        <v>1.054656351964938</v>
       </c>
       <c r="L11">
-        <v>1.024355021464565</v>
+        <v>1.05043766055703</v>
       </c>
       <c r="M11">
-        <v>1.034008275475198</v>
+        <v>1.059670594270513</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.056275309866103</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04978516697051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9898414546615831</v>
+        <v>1.021763725332703</v>
       </c>
       <c r="D12">
-        <v>1.013519022203077</v>
+        <v>1.040200092912699</v>
       </c>
       <c r="E12">
-        <v>1.0079164204079</v>
+        <v>1.035884632142811</v>
       </c>
       <c r="F12">
-        <v>1.017749010752229</v>
+        <v>1.045469333395199</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042277911344879</v>
+        <v>1.05648560271032</v>
       </c>
       <c r="J12">
-        <v>1.020082052821304</v>
+        <v>1.050674735474265</v>
       </c>
       <c r="K12">
-        <v>1.02839172275493</v>
+        <v>1.054595625558179</v>
       </c>
       <c r="L12">
-        <v>1.022893509792403</v>
+        <v>1.050355184766798</v>
       </c>
       <c r="M12">
-        <v>1.032543888700048</v>
+        <v>1.059774350314452</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.056677819775284</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.049742232992099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9902831753206833</v>
+        <v>1.02249421790725</v>
       </c>
       <c r="D13">
-        <v>1.013845739184939</v>
+        <v>1.040809505482863</v>
       </c>
       <c r="E13">
-        <v>1.00828142027116</v>
+        <v>1.036589887338206</v>
       </c>
       <c r="F13">
-        <v>1.018113845687441</v>
+        <v>1.046246842612483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042403681854051</v>
+        <v>1.056868167678261</v>
       </c>
       <c r="J13">
-        <v>1.02041039016187</v>
+        <v>1.051286919169686</v>
       </c>
       <c r="K13">
-        <v>1.02866923871903</v>
+        <v>1.055152955049003</v>
       </c>
       <c r="L13">
-        <v>1.023208155783787</v>
+        <v>1.051006327236214</v>
       </c>
       <c r="M13">
-        <v>1.032859153392744</v>
+        <v>1.060497358633546</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.057521674621729</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.050133825430569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.991724241454632</v>
+        <v>1.02360448884999</v>
       </c>
       <c r="D14">
-        <v>1.014911866549777</v>
+        <v>1.041631318276618</v>
       </c>
       <c r="E14">
-        <v>1.009472526595494</v>
+        <v>1.037531747172739</v>
       </c>
       <c r="F14">
-        <v>1.019304419622794</v>
+        <v>1.047185269762225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042813694520888</v>
+        <v>1.057301986751697</v>
       </c>
       <c r="J14">
-        <v>1.021481553419645</v>
+        <v>1.052061527552983</v>
       </c>
       <c r="K14">
-        <v>1.029574548955584</v>
+        <v>1.055824630522986</v>
       </c>
       <c r="L14">
-        <v>1.024234726417612</v>
+        <v>1.051795045654939</v>
       </c>
       <c r="M14">
-        <v>1.033887743687954</v>
+        <v>1.061284893823436</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.058315073631256</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.050610100690176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9926073916991309</v>
+        <v>1.024170222347255</v>
       </c>
       <c r="D15">
-        <v>1.01556542348988</v>
+        <v>1.042030344171372</v>
       </c>
       <c r="E15">
-        <v>1.010202741885488</v>
+        <v>1.037986325299125</v>
       </c>
       <c r="F15">
-        <v>1.020034312567812</v>
+        <v>1.047616545862695</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04306473742162</v>
+        <v>1.057493660227622</v>
       </c>
       <c r="J15">
-        <v>1.022138006685716</v>
+        <v>1.052425725064067</v>
       </c>
       <c r="K15">
-        <v>1.030129318469273</v>
+        <v>1.05613311978072</v>
       </c>
       <c r="L15">
-        <v>1.024863907475171</v>
+        <v>1.05215759762487</v>
       </c>
       <c r="M15">
-        <v>1.03451816305193</v>
+        <v>1.061625823724058</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.058621597176276</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.050833956279884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9976776194096861</v>
+        <v>1.026972529872586</v>
       </c>
       <c r="D16">
-        <v>1.019320203482274</v>
+        <v>1.043905305250591</v>
       </c>
       <c r="E16">
-        <v>1.014398635236092</v>
+        <v>1.040125047220871</v>
       </c>
       <c r="F16">
-        <v>1.024228398492425</v>
+        <v>1.049551121644126</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044502416747067</v>
+        <v>1.058296870373904</v>
       </c>
       <c r="J16">
-        <v>1.025906601578599</v>
+        <v>1.054081912014681</v>
       </c>
       <c r="K16">
-        <v>1.033313492916961</v>
+        <v>1.057490153968227</v>
       </c>
       <c r="L16">
-        <v>1.028476766022826</v>
+        <v>1.053771084931347</v>
       </c>
       <c r="M16">
-        <v>1.038138124996485</v>
+        <v>1.063045636128905</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.059705637046273</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.051796489574386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000798653407448</v>
+        <v>1.028541557619162</v>
       </c>
       <c r="D17">
-        <v>1.021633678619298</v>
+        <v>1.044914154723623</v>
       </c>
       <c r="E17">
-        <v>1.016984551256485</v>
+        <v>1.041273281337035</v>
       </c>
       <c r="F17">
-        <v>1.026813222939375</v>
+        <v>1.050540742562052</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0453841802643</v>
+        <v>1.05868356489906</v>
       </c>
       <c r="J17">
-        <v>1.028226175101456</v>
+        <v>1.054945447988184</v>
       </c>
       <c r="K17">
-        <v>1.035272733536172</v>
+        <v>1.058177982163456</v>
       </c>
       <c r="L17">
-        <v>1.03070119224923</v>
+        <v>1.05459437409988</v>
       </c>
       <c r="M17">
-        <v>1.040366903735671</v>
+        <v>1.06371706943994</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.060109201820314</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.052285323040249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00259858409292</v>
+        <v>1.029175589527409</v>
       </c>
       <c r="D18">
-        <v>1.02296860758237</v>
+        <v>1.045243845062371</v>
       </c>
       <c r="E18">
-        <v>1.018476934753975</v>
+        <v>1.041645931960803</v>
       </c>
       <c r="F18">
-        <v>1.028304978081037</v>
+        <v>1.050767620394393</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045891513530646</v>
+        <v>1.058730024250645</v>
       </c>
       <c r="J18">
-        <v>1.029563778234474</v>
+        <v>1.055179950411995</v>
       </c>
       <c r="K18">
-        <v>1.03640231064498</v>
+        <v>1.0583247804827</v>
       </c>
       <c r="L18">
-        <v>1.031984175968398</v>
+        <v>1.054782541005281</v>
       </c>
       <c r="M18">
-        <v>1.04165238468067</v>
+        <v>1.063764027501183</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.059912558471089</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.052377718751559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003208914341865</v>
+        <v>1.028998362746276</v>
       </c>
       <c r="D19">
-        <v>1.023421380210749</v>
+        <v>1.044995735240016</v>
       </c>
       <c r="E19">
-        <v>1.018983155543813</v>
+        <v>1.041348699924437</v>
       </c>
       <c r="F19">
-        <v>1.028810985419301</v>
+        <v>1.050332062075713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04606333839512</v>
+        <v>1.058495598196733</v>
       </c>
       <c r="J19">
-        <v>1.030017316731181</v>
+        <v>1.054880404679664</v>
       </c>
       <c r="K19">
-        <v>1.036785272792725</v>
+        <v>1.058019866549373</v>
       </c>
       <c r="L19">
-        <v>1.03241923624235</v>
+        <v>1.05442900319969</v>
       </c>
       <c r="M19">
-        <v>1.04208828901778</v>
+        <v>1.063274898450158</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.059206399002065</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.052168405101515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000465937318908</v>
+        <v>1.026522257165311</v>
       </c>
       <c r="D20">
-        <v>1.021386975248542</v>
+        <v>1.043102215819119</v>
       </c>
       <c r="E20">
-        <v>1.016708769835212</v>
+        <v>1.03916103517711</v>
       </c>
       <c r="F20">
-        <v>1.026537557622999</v>
+        <v>1.048052329805175</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045290303115977</v>
+        <v>1.05746181573914</v>
       </c>
       <c r="J20">
-        <v>1.027978909672027</v>
+        <v>1.053067732483348</v>
       </c>
       <c r="K20">
-        <v>1.035063903731512</v>
+        <v>1.056427262993943</v>
       </c>
       <c r="L20">
-        <v>1.030464043548302</v>
+        <v>1.052548546722688</v>
       </c>
       <c r="M20">
-        <v>1.040129292253445</v>
+        <v>1.061299772720436</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.057126844750845</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.051046264716255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9913008760220566</v>
+        <v>1.021165323268342</v>
       </c>
       <c r="D21">
-        <v>1.014598613739426</v>
+        <v>1.039453094253989</v>
       </c>
       <c r="E21">
-        <v>1.00912254302824</v>
+        <v>1.034991997058271</v>
       </c>
       <c r="F21">
-        <v>1.018954591603662</v>
+        <v>1.044224208193967</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042693286561182</v>
+        <v>1.05582988764743</v>
       </c>
       <c r="J21">
-        <v>1.021166860943672</v>
+        <v>1.049804030908291</v>
       </c>
       <c r="K21">
-        <v>1.029308590451744</v>
+        <v>1.053723677274465</v>
       </c>
       <c r="L21">
-        <v>1.023933122876575</v>
+        <v>1.049339435526806</v>
       </c>
       <c r="M21">
-        <v>1.033585546644093</v>
+        <v>1.058413532680545</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.054802644446159</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.049137973769004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.985333832067214</v>
+        <v>1.017752834771441</v>
       </c>
       <c r="D22">
-        <v>1.010187064077665</v>
+        <v>1.037138408175927</v>
       </c>
       <c r="E22">
-        <v>1.00419446896314</v>
+        <v>1.032354227385207</v>
       </c>
       <c r="F22">
-        <v>1.014028797940793</v>
+        <v>1.041818309038095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040992100244719</v>
+        <v>1.054790841087093</v>
       </c>
       <c r="J22">
-        <v>1.016731512750136</v>
+        <v>1.04773314189271</v>
       </c>
       <c r="K22">
-        <v>1.025559378921641</v>
+        <v>1.052008381350197</v>
       </c>
       <c r="L22">
-        <v>1.019683288054842</v>
+        <v>1.047310880189679</v>
       </c>
       <c r="M22">
-        <v>1.029327371971432</v>
+        <v>1.056604491668374</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.053370936110649</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.047911979893911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.988517498088838</v>
+        <v>1.019551210539441</v>
       </c>
       <c r="D23">
-        <v>1.012539979208309</v>
+        <v>1.038350981049537</v>
       </c>
       <c r="E23">
-        <v>1.006822705097841</v>
+        <v>1.033740522075102</v>
       </c>
       <c r="F23">
-        <v>1.016655795137199</v>
+        <v>1.043082814338819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041900690083446</v>
+        <v>1.055332471486637</v>
       </c>
       <c r="J23">
-        <v>1.019097938108845</v>
+        <v>1.048818421475015</v>
       </c>
       <c r="K23">
-        <v>1.02755988833459</v>
+        <v>1.052903016552251</v>
       </c>
       <c r="L23">
-        <v>1.02195049516573</v>
+        <v>1.048373907068777</v>
       </c>
       <c r="M23">
-        <v>1.03159902116444</v>
+        <v>1.057552326423076</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.054121070309195</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.048535044808715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000616340588788</v>
+        <v>1.026512560340171</v>
       </c>
       <c r="D24">
-        <v>1.02149849449959</v>
+        <v>1.0430681732236</v>
       </c>
       <c r="E24">
-        <v>1.016833432685409</v>
+        <v>1.039127586942135</v>
       </c>
       <c r="F24">
-        <v>1.026662167986256</v>
+        <v>1.047999637927649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045332743685381</v>
+        <v>1.057425090107545</v>
       </c>
       <c r="J24">
-        <v>1.028090685611525</v>
+        <v>1.05302688976538</v>
       </c>
       <c r="K24">
-        <v>1.035158305647088</v>
+        <v>1.056378942788897</v>
       </c>
       <c r="L24">
-        <v>1.030571245468076</v>
+        <v>1.052500737057085</v>
       </c>
       <c r="M24">
-        <v>1.040236703413516</v>
+        <v>1.061233185802208</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.057034164416246</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.050985242875901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013859003398562</v>
+        <v>1.034304457855356</v>
       </c>
       <c r="D25">
-        <v>1.031331175836806</v>
+        <v>1.048371098716562</v>
       </c>
       <c r="E25">
-        <v>1.027830704055781</v>
+        <v>1.045187252994562</v>
       </c>
       <c r="F25">
-        <v>1.037654660992096</v>
+        <v>1.05353701573875</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049043516998188</v>
+        <v>1.059735083472996</v>
       </c>
       <c r="J25">
-        <v>1.03792879213181</v>
+        <v>1.057730033899124</v>
       </c>
       <c r="K25">
-        <v>1.043461833555128</v>
+        <v>1.060262210773717</v>
       </c>
       <c r="L25">
-        <v>1.040011817321474</v>
+        <v>1.057122374745436</v>
       </c>
       <c r="M25">
-        <v>1.049695263336502</v>
+        <v>1.065357432615558</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.060298149636079</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.053727998232745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040261134282571</v>
+        <v>1.037247292763435</v>
       </c>
       <c r="D2">
-        <v>1.052422443680383</v>
+        <v>1.048791986746678</v>
       </c>
       <c r="E2">
-        <v>1.049833858766683</v>
+        <v>1.047273089056123</v>
       </c>
       <c r="F2">
-        <v>1.057788290526775</v>
+        <v>1.055178828898296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061455568415579</v>
+        <v>1.059691702847358</v>
       </c>
       <c r="J2">
-        <v>1.061300887388368</v>
+        <v>1.058368285033476</v>
       </c>
       <c r="K2">
-        <v>1.063196745590379</v>
+        <v>1.059610980861996</v>
       </c>
       <c r="L2">
-        <v>1.06063998771235</v>
+        <v>1.058110895827578</v>
       </c>
       <c r="M2">
-        <v>1.068497234779641</v>
+        <v>1.065919454008522</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.062783022687934</v>
+        <v>1.060742939968365</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.055755571449488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.053228816678977</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.027538722966635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044500479894764</v>
+        <v>1.041286470525245</v>
       </c>
       <c r="D3">
-        <v>1.055325069118116</v>
+        <v>1.051456192676431</v>
       </c>
       <c r="E3">
-        <v>1.053157191784698</v>
+        <v>1.050411507239847</v>
       </c>
       <c r="F3">
-        <v>1.060831330429239</v>
+        <v>1.058044427095279</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.062674358045201</v>
+        <v>1.060775046461346</v>
       </c>
       <c r="J3">
-        <v>1.063847385928651</v>
+        <v>1.060711579758241</v>
       </c>
       <c r="K3">
-        <v>1.065295807245678</v>
+        <v>1.061470440171119</v>
       </c>
       <c r="L3">
-        <v>1.063152261348896</v>
+        <v>1.060437570997992</v>
       </c>
       <c r="M3">
-        <v>1.070740818034207</v>
+        <v>1.067984817624555</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.064558613651105</v>
+        <v>1.062377490806466</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.057237121282482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.054540680289223</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027956921055226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047194664558915</v>
+        <v>1.043855105389367</v>
       </c>
       <c r="D4">
-        <v>1.057173762934717</v>
+        <v>1.053154587051145</v>
       </c>
       <c r="E4">
-        <v>1.055274578802025</v>
+        <v>1.05241287132071</v>
       </c>
       <c r="F4">
-        <v>1.062771331568241</v>
+        <v>1.059872880854087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.063441455812105</v>
+        <v>1.061456847515371</v>
       </c>
       <c r="J4">
-        <v>1.065463600117033</v>
+        <v>1.062199837593367</v>
       </c>
       <c r="K4">
-        <v>1.066627851626289</v>
+        <v>1.06265117104667</v>
       </c>
       <c r="L4">
-        <v>1.064748698486873</v>
+        <v>1.061917341002542</v>
       </c>
       <c r="M4">
-        <v>1.072166890353054</v>
+        <v>1.069298652439309</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.065687217385654</v>
+        <v>1.063417271935526</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.058179823076518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.055376480453629</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.028220101863536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048321172703048</v>
+        <v>1.044929400416751</v>
       </c>
       <c r="D5">
-        <v>1.057949832899663</v>
+        <v>1.053868055315187</v>
       </c>
       <c r="E5">
-        <v>1.056161967613447</v>
+        <v>1.053251969591534</v>
       </c>
       <c r="F5">
-        <v>1.06358465984467</v>
+        <v>1.060639772743863</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.063762469464046</v>
+        <v>1.061742277731092</v>
       </c>
       <c r="J5">
-        <v>1.066140813229613</v>
+        <v>1.062823738363348</v>
       </c>
       <c r="K5">
-        <v>1.067187418497299</v>
+        <v>1.063147657982591</v>
       </c>
       <c r="L5">
-        <v>1.065417908421204</v>
+        <v>1.062537948651624</v>
       </c>
       <c r="M5">
-        <v>1.072764886740486</v>
+        <v>1.069849883976055</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.066160475481731</v>
+        <v>1.063853521304467</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.058582461487408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.055735234000184</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028330942741874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048516021465909</v>
+        <v>1.045115119500772</v>
       </c>
       <c r="D6">
-        <v>1.058086736269581</v>
+        <v>1.053994095018513</v>
       </c>
       <c r="E6">
-        <v>1.05631650777934</v>
+        <v>1.053398022104608</v>
       </c>
       <c r="F6">
-        <v>1.063726317375402</v>
+        <v>1.060773317578127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.063820437690955</v>
+        <v>1.06179397527972</v>
       </c>
       <c r="J6">
-        <v>1.066260314982298</v>
+        <v>1.062933928571368</v>
       </c>
       <c r="K6">
-        <v>1.067287942243281</v>
+        <v>1.063237238163445</v>
       </c>
       <c r="L6">
-        <v>1.065535804619135</v>
+        <v>1.0626473063504</v>
       </c>
       <c r="M6">
-        <v>1.072870378135072</v>
+        <v>1.069947208471152</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.066243962004411</v>
+        <v>1.063930544719915</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.058662067693779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.055807976282815</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.028351820324088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047226941487449</v>
+        <v>1.043885535804998</v>
       </c>
       <c r="D7">
-        <v>1.057203019989524</v>
+        <v>1.053181887823535</v>
       </c>
       <c r="E7">
-        <v>1.055302655673685</v>
+        <v>1.052439118851464</v>
       </c>
       <c r="F7">
-        <v>1.062797041479547</v>
+        <v>1.059896976631983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.063457553275513</v>
+        <v>1.061471563641901</v>
       </c>
       <c r="J7">
-        <v>1.065489469893883</v>
+        <v>1.062223869298319</v>
       </c>
       <c r="K7">
-        <v>1.066654014403893</v>
+        <v>1.062675381356771</v>
       </c>
       <c r="L7">
-        <v>1.064773685561659</v>
+        <v>1.061940506159969</v>
       </c>
       <c r="M7">
-        <v>1.072189566133439</v>
+        <v>1.069319719182489</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.065705163145817</v>
+        <v>1.063433944341343</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.058217946545328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05541523318049</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.028227985442044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041726043643734</v>
+        <v>1.038642136916288</v>
       </c>
       <c r="D8">
-        <v>1.053433419386552</v>
+        <v>1.049720024560269</v>
       </c>
       <c r="E8">
-        <v>1.05098459778429</v>
+        <v>1.048358945419451</v>
       </c>
       <c r="F8">
-        <v>1.058841625596114</v>
+        <v>1.056170147031703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.061886967773967</v>
+        <v>1.060075595966158</v>
       </c>
       <c r="J8">
-        <v>1.062189413327566</v>
+        <v>1.059185855118471</v>
       </c>
       <c r="K8">
-        <v>1.063935161958197</v>
+        <v>1.060266129744204</v>
       </c>
       <c r="L8">
-        <v>1.061515551902415</v>
+        <v>1.058921408611218</v>
       </c>
       <c r="M8">
-        <v>1.069279447263606</v>
+        <v>1.066639442219567</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.063402072790272</v>
+        <v>1.061312746723286</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.05630004970429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.053716700615917</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027689716347272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031611962576434</v>
+        <v>1.029016406541804</v>
       </c>
       <c r="D9">
-        <v>1.046524963494354</v>
+        <v>1.043387997264179</v>
       </c>
       <c r="E9">
-        <v>1.043085021350929</v>
+        <v>1.040910105797508</v>
       </c>
       <c r="F9">
-        <v>1.051615421100544</v>
+        <v>1.049375051184779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058930229364485</v>
+        <v>1.057447042334363</v>
       </c>
       <c r="J9">
-        <v>1.056095765896643</v>
+        <v>1.053584546127708</v>
       </c>
       <c r="K9">
-        <v>1.058905753970162</v>
+        <v>1.055814280354493</v>
       </c>
       <c r="L9">
-        <v>1.055515716608876</v>
+        <v>1.0533725695345</v>
       </c>
       <c r="M9">
-        <v>1.063923120153877</v>
+        <v>1.061714808000013</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.059163016746098</v>
+        <v>1.057415327512206</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.052740964298506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.050565686248968</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026672396132692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024674441082736</v>
+        <v>1.02241734870513</v>
       </c>
       <c r="D10">
-        <v>1.041835750054118</v>
+        <v>1.039094823571371</v>
       </c>
       <c r="E10">
-        <v>1.037726912850014</v>
+        <v>1.035862615290327</v>
       </c>
       <c r="F10">
-        <v>1.046749170965684</v>
+        <v>1.044805974200499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056898251454299</v>
+        <v>1.055638986141384</v>
       </c>
       <c r="J10">
-        <v>1.051942169222054</v>
+        <v>1.049768934813086</v>
       </c>
       <c r="K10">
-        <v>1.055488610756817</v>
+        <v>1.052792349788355</v>
       </c>
       <c r="L10">
-        <v>1.051446843717765</v>
+        <v>1.049613203575766</v>
       </c>
       <c r="M10">
-        <v>1.06032271465742</v>
+        <v>1.058410772342782</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0563639490275</v>
+        <v>1.054850896267183</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.050341388605858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04844722667356</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025979690685171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022352647772228</v>
+        <v>1.020148720590623</v>
       </c>
       <c r="D11">
-        <v>1.040459124238094</v>
+        <v>1.037794212208552</v>
       </c>
       <c r="E11">
-        <v>1.036167023532271</v>
+        <v>1.03434362509082</v>
       </c>
       <c r="F11">
-        <v>1.045559591170016</v>
+        <v>1.043665807716537</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056468366282671</v>
+        <v>1.055236825108082</v>
       </c>
       <c r="J11">
-        <v>1.05082421455683</v>
+        <v>1.048706664565403</v>
       </c>
       <c r="K11">
-        <v>1.054656351964938</v>
+        <v>1.05203692650996</v>
       </c>
       <c r="L11">
-        <v>1.05043766055703</v>
+        <v>1.048645686835556</v>
       </c>
       <c r="M11">
-        <v>1.059670594270513</v>
+        <v>1.057808698786589</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.056275309866103</v>
+        <v>1.054802574701183</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04978516697051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.047948560736495</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025882142152245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,105 +1059,123 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021763725332703</v>
+        <v>1.019539853288915</v>
       </c>
       <c r="D12">
-        <v>1.040200092912699</v>
+        <v>1.037523299895356</v>
       </c>
       <c r="E12">
-        <v>1.035884632142811</v>
+        <v>1.034036745905509</v>
       </c>
       <c r="F12">
-        <v>1.045469333395199</v>
+        <v>1.043560367573521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05648560271032</v>
+        <v>1.055235237823186</v>
       </c>
       <c r="J12">
-        <v>1.050674735474265</v>
+        <v>1.048539670798656</v>
       </c>
       <c r="K12">
-        <v>1.054595625558179</v>
+        <v>1.051965270767495</v>
       </c>
       <c r="L12">
-        <v>1.050355184766798</v>
+        <v>1.048539670319306</v>
       </c>
       <c r="M12">
-        <v>1.059774350314452</v>
+        <v>1.057898040498939</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.056677819775284</v>
+        <v>1.05519416782642</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.049742232992099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.047897900445349</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025923814661405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>1.02249421790725</v>
+        <v>1.020191057284786</v>
       </c>
       <c r="D13">
-        <v>1.040809505482863</v>
+        <v>1.038050594452518</v>
       </c>
       <c r="E13">
-        <v>1.036589887338206</v>
+        <v>1.034663995107924</v>
       </c>
       <c r="F13">
-        <v>1.046246842612483</v>
+        <v>1.044270576233035</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056868167678261</v>
+        <v>1.055560738661103</v>
       </c>
       <c r="J13">
-        <v>1.051286919169686</v>
+        <v>1.049075222192383</v>
       </c>
       <c r="K13">
-        <v>1.055152955049003</v>
+        <v>1.052441680361091</v>
       </c>
       <c r="L13">
-        <v>1.051006327236214</v>
+        <v>1.04911400508529</v>
       </c>
       <c r="M13">
-        <v>1.060497358633546</v>
+        <v>1.058554725481161</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.057521674621729</v>
+        <v>1.055985953230521</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.050133825430569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.048232032768101</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026085710410801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02360448884999</v>
+        <v>1.021219545522977</v>
       </c>
       <c r="D14">
-        <v>1.041631318276618</v>
+        <v>1.038783557715722</v>
       </c>
       <c r="E14">
-        <v>1.037531747172739</v>
+        <v>1.035527605690538</v>
       </c>
       <c r="F14">
-        <v>1.047185269762225</v>
+        <v>1.045138747566123</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057301986751697</v>
+        <v>1.055937655858451</v>
       </c>
       <c r="J14">
-        <v>1.052061527552983</v>
+        <v>1.049769888329749</v>
       </c>
       <c r="K14">
-        <v>1.055824630522986</v>
+        <v>1.053025410095219</v>
       </c>
       <c r="L14">
-        <v>1.051795045654939</v>
+        <v>1.049825378874396</v>
       </c>
       <c r="M14">
-        <v>1.061284893823436</v>
+        <v>1.059272744467709</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.058315073631256</v>
+        <v>1.056724606668617</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.050610100690176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.048646262848295</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026254035806403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024170222347255</v>
+        <v>1.021751796564872</v>
       </c>
       <c r="D15">
-        <v>1.042030344171372</v>
+        <v>1.039144906023967</v>
       </c>
       <c r="E15">
-        <v>1.037986325299125</v>
+        <v>1.035950830877509</v>
       </c>
       <c r="F15">
-        <v>1.047616545862695</v>
+        <v>1.045541001451238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057493660227622</v>
+        <v>1.056106630652933</v>
       </c>
       <c r="J15">
-        <v>1.052425725064067</v>
+        <v>1.050101068335266</v>
       </c>
       <c r="K15">
-        <v>1.05613311978072</v>
+        <v>1.053296484219544</v>
       </c>
       <c r="L15">
-        <v>1.05215759762487</v>
+        <v>1.050156841386007</v>
       </c>
       <c r="M15">
-        <v>1.061625823724058</v>
+        <v>1.059584867950985</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.058621597176276</v>
+        <v>1.057008402275532</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.050833956279884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.048844237398426</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026324476859859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026972529872586</v>
+        <v>1.024425990396956</v>
       </c>
       <c r="D16">
-        <v>1.043905305250591</v>
+        <v>1.040867723282175</v>
       </c>
       <c r="E16">
-        <v>1.040125047220871</v>
+        <v>1.037973606853775</v>
       </c>
       <c r="F16">
-        <v>1.049551121644126</v>
+        <v>1.047362995039724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058296870373904</v>
+        <v>1.056826542476842</v>
       </c>
       <c r="J16">
-        <v>1.054081912014681</v>
+        <v>1.051629127796433</v>
       </c>
       <c r="K16">
-        <v>1.057490153968227</v>
+        <v>1.054501694642133</v>
       </c>
       <c r="L16">
-        <v>1.053771084931347</v>
+        <v>1.051654724553356</v>
       </c>
       <c r="M16">
-        <v>1.063045636128905</v>
+        <v>1.060892371836774</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.059705637046273</v>
+        <v>1.058003624141357</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.051796489574386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.049699728680839</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026594521365832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028541557619162</v>
+        <v>1.025939581046666</v>
       </c>
       <c r="D17">
-        <v>1.044914154723623</v>
+        <v>1.041806442241709</v>
       </c>
       <c r="E17">
-        <v>1.041273281337035</v>
+        <v>1.039073749076944</v>
       </c>
       <c r="F17">
-        <v>1.050540742562052</v>
+        <v>1.048302988040346</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05868356489906</v>
+        <v>1.057179010680938</v>
       </c>
       <c r="J17">
-        <v>1.054945447988184</v>
+        <v>1.052436182956666</v>
       </c>
       <c r="K17">
-        <v>1.058177982163456</v>
+        <v>1.055119117184707</v>
       </c>
       <c r="L17">
-        <v>1.05459437409988</v>
+        <v>1.052429686191625</v>
       </c>
       <c r="M17">
-        <v>1.06371706943994</v>
+        <v>1.061513971087796</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.060109201820314</v>
+        <v>1.058367628784171</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.052285323040249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.050139032722593</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026712538329347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029175589527409</v>
+        <v>1.026577797457696</v>
       </c>
       <c r="D18">
-        <v>1.045243845062371</v>
+        <v>1.042132577812698</v>
       </c>
       <c r="E18">
-        <v>1.041645931960803</v>
+        <v>1.039454611164329</v>
       </c>
       <c r="F18">
-        <v>1.050767620394393</v>
+        <v>1.048531780883481</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058730024250645</v>
+        <v>1.057232230475679</v>
       </c>
       <c r="J18">
-        <v>1.055179950411995</v>
+        <v>1.052673010113167</v>
       </c>
       <c r="K18">
-        <v>1.0583247804827</v>
+        <v>1.055261627840149</v>
       </c>
       <c r="L18">
-        <v>1.054782541005281</v>
+        <v>1.052625369882392</v>
       </c>
       <c r="M18">
-        <v>1.063764027501183</v>
+        <v>1.061562265387711</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.059912558471089</v>
+        <v>1.058171689772518</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.052377718751559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.050227255668234</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026701475635234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028998362746276</v>
+        <v>1.026454189269124</v>
       </c>
       <c r="D19">
-        <v>1.044995735240016</v>
+        <v>1.041936904272777</v>
       </c>
       <c r="E19">
-        <v>1.041348699924437</v>
+        <v>1.039211959033896</v>
       </c>
       <c r="F19">
-        <v>1.050332062075713</v>
+        <v>1.048140973424068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058495598196733</v>
+        <v>1.057038246924693</v>
       </c>
       <c r="J19">
-        <v>1.054880404679664</v>
+        <v>1.052424727635309</v>
       </c>
       <c r="K19">
-        <v>1.058019866549373</v>
+        <v>1.055008114008728</v>
       </c>
       <c r="L19">
-        <v>1.05442900319969</v>
+        <v>1.052325406654186</v>
       </c>
       <c r="M19">
-        <v>1.063274898450158</v>
+        <v>1.061117061701439</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.059206399002065</v>
+        <v>1.057499723161595</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.052168405101515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.050054911375437</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026587708623838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026522257165311</v>
+        <v>1.024172169295743</v>
       </c>
       <c r="D20">
-        <v>1.043102215819119</v>
+        <v>1.040253818192687</v>
       </c>
       <c r="E20">
-        <v>1.03916103517711</v>
+        <v>1.037211012971877</v>
       </c>
       <c r="F20">
-        <v>1.048052329805175</v>
+        <v>1.046027753305961</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05746181573914</v>
+        <v>1.056140764946434</v>
       </c>
       <c r="J20">
-        <v>1.053067732483348</v>
+        <v>1.050802075576904</v>
       </c>
       <c r="K20">
-        <v>1.056427262993943</v>
+        <v>1.05362394930051</v>
       </c>
       <c r="L20">
-        <v>1.052548546722688</v>
+        <v>1.050629655785833</v>
       </c>
       <c r="M20">
-        <v>1.061299772720436</v>
+        <v>1.059306822511166</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.057126844750845</v>
+        <v>1.055549666912966</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.051046264716255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.049080534536009</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026178353980066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021165323268342</v>
+        <v>1.019092226227835</v>
       </c>
       <c r="D21">
-        <v>1.039453094253989</v>
+        <v>1.036923940170308</v>
       </c>
       <c r="E21">
-        <v>1.034991997058271</v>
+        <v>1.033297110174868</v>
       </c>
       <c r="F21">
-        <v>1.044224208193967</v>
+        <v>1.042441363638234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.05582988764743</v>
+        <v>1.054692195423433</v>
       </c>
       <c r="J21">
-        <v>1.049804030908291</v>
+        <v>1.047812842595976</v>
       </c>
       <c r="K21">
-        <v>1.053723677274465</v>
+        <v>1.051237990283894</v>
       </c>
       <c r="L21">
-        <v>1.049339435526806</v>
+        <v>1.047673973224136</v>
       </c>
       <c r="M21">
-        <v>1.058413532680545</v>
+        <v>1.056660939996225</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.054802644446159</v>
+        <v>1.053415610396669</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.049137973769004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.047397145345573</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025611999601275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017752834771441</v>
+        <v>1.015856320127911</v>
       </c>
       <c r="D22">
-        <v>1.037138408175927</v>
+        <v>1.034811726235165</v>
       </c>
       <c r="E22">
-        <v>1.032354227385207</v>
+        <v>1.030821402801622</v>
       </c>
       <c r="F22">
-        <v>1.041818309038095</v>
+        <v>1.040189101773615</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054790841087093</v>
+        <v>1.053769037186439</v>
       </c>
       <c r="J22">
-        <v>1.04773314189271</v>
+        <v>1.045916002445941</v>
       </c>
       <c r="K22">
-        <v>1.052008381350197</v>
+        <v>1.049723723956372</v>
       </c>
       <c r="L22">
-        <v>1.047310880189679</v>
+        <v>1.045806048869639</v>
       </c>
       <c r="M22">
-        <v>1.056604491668374</v>
+        <v>1.055004343195551</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.053370936110649</v>
+        <v>1.05210454691157</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.047911979893911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.046311979475211</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025251711259368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019551210539441</v>
+        <v>1.017562028670657</v>
       </c>
       <c r="D23">
-        <v>1.038350981049537</v>
+        <v>1.035917875186679</v>
       </c>
       <c r="E23">
-        <v>1.033740522075102</v>
+        <v>1.032122856908772</v>
       </c>
       <c r="F23">
-        <v>1.043082814338819</v>
+        <v>1.041373017094737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055332471486637</v>
+        <v>1.054250114285446</v>
       </c>
       <c r="J23">
-        <v>1.048818421475015</v>
+        <v>1.04691000844212</v>
       </c>
       <c r="K23">
-        <v>1.052903016552251</v>
+        <v>1.050512724749252</v>
       </c>
       <c r="L23">
-        <v>1.048373907068777</v>
+        <v>1.046785008464396</v>
       </c>
       <c r="M23">
-        <v>1.057552326423076</v>
+        <v>1.055872236099026</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.054121070309195</v>
+        <v>1.052791414811802</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.048535044808715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.046859409224367</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025437278123456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026512560340171</v>
+        <v>1.024169469099929</v>
       </c>
       <c r="D24">
-        <v>1.0430681732236</v>
+        <v>1.040226206370941</v>
       </c>
       <c r="E24">
-        <v>1.039127586942135</v>
+        <v>1.037184895272199</v>
       </c>
       <c r="F24">
-        <v>1.047999637927649</v>
+        <v>1.045980869211218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057425090107545</v>
+        <v>1.056109532841642</v>
       </c>
       <c r="J24">
-        <v>1.05302688976538</v>
+        <v>1.050767862143406</v>
       </c>
       <c r="K24">
-        <v>1.056378942788897</v>
+        <v>1.053581904181474</v>
       </c>
       <c r="L24">
-        <v>1.052500737057085</v>
+        <v>1.050589022353353</v>
       </c>
       <c r="M24">
-        <v>1.061233185802208</v>
+        <v>1.059245916365306</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.057034164416246</v>
+        <v>1.055461407298518</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.050985242875901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04902126367061</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026157916207875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034304457855356</v>
+        <v>1.031576216897882</v>
       </c>
       <c r="D25">
-        <v>1.048371098716562</v>
+        <v>1.045078870612211</v>
       </c>
       <c r="E25">
-        <v>1.045187252994562</v>
+        <v>1.042889751096332</v>
       </c>
       <c r="F25">
-        <v>1.05353701573875</v>
+        <v>1.051179881571021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059735083472996</v>
+        <v>1.058162913791602</v>
       </c>
       <c r="J25">
-        <v>1.057730033899124</v>
+        <v>1.055085719992804</v>
       </c>
       <c r="K25">
-        <v>1.060262210773717</v>
+        <v>1.05701549646517</v>
       </c>
       <c r="L25">
-        <v>1.057122374745436</v>
+        <v>1.05485684144277</v>
       </c>
       <c r="M25">
-        <v>1.065357432615558</v>
+        <v>1.063032447107539</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.060298149636079</v>
+        <v>1.058458126074072</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.053727998232745</v>
+        <v>1.051445777917154</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02695311054081</v>
       </c>
     </row>
   </sheetData>
